--- a/store/output/clean_data_chronos.xlsx
+++ b/store/output/clean_data_chronos.xlsx
@@ -509,10 +509,10 @@
         <v>45352</v>
       </c>
       <c r="B2" t="n">
-        <v>261948.3265625</v>
+        <v>245237.1234375</v>
       </c>
       <c r="C2" t="n">
-        <v>2272.333520507812</v>
+        <v>2445.666015625</v>
       </c>
       <c r="D2" t="n">
         <v>20</v>
@@ -531,22 +531,22 @@
         <v>34658.327</v>
       </c>
       <c r="H2" t="n">
-        <v>7.55801994027294</v>
+        <v>7.075850009652804</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06556385484238211</v>
+        <v>0.0705650337832233</v>
       </c>
       <c r="J2" t="n">
-        <v>29.42377875853246</v>
+        <v>31.66821028320265</v>
       </c>
       <c r="K2" t="n">
-        <v>109232.4521765625</v>
+        <v>102263.8804734375</v>
       </c>
       <c r="L2" t="n">
-        <v>2954.033576660156</v>
+        <v>3179.3658203125</v>
       </c>
       <c r="M2" t="n">
-        <v>8.38280407779496</v>
+        <v>7.878935408954058</v>
       </c>
     </row>
     <row r="3">
@@ -554,10 +554,10 @@
         <v>45383</v>
       </c>
       <c r="B3" t="n">
-        <v>287015.303125</v>
+        <v>267797.2421875</v>
       </c>
       <c r="C3" t="n">
-        <v>2326.94580078125</v>
+        <v>2533.520263671875</v>
       </c>
       <c r="D3" t="n">
         <v>21</v>
@@ -576,22 +576,22 @@
         <v>34658.327</v>
       </c>
       <c r="H3" t="n">
-        <v>8.281279795328839</v>
+        <v>7.726779258199625</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06713958815095865</v>
+        <v>0.07309990074454185</v>
       </c>
       <c r="J3" t="n">
-        <v>28.69613059181508</v>
+        <v>31.24362772821301</v>
       </c>
       <c r="K3" t="n">
-        <v>119685.381403125</v>
+        <v>111671.4499921875</v>
       </c>
       <c r="L3" t="n">
-        <v>3025.029541015625</v>
+        <v>3293.576342773438</v>
       </c>
       <c r="M3" t="n">
-        <v>9.169173330851823</v>
+        <v>8.590422323099032</v>
       </c>
     </row>
     <row r="4">
@@ -599,10 +599,10 @@
         <v>45413</v>
       </c>
       <c r="B4" t="n">
-        <v>259023.671875</v>
+        <v>254846.140625</v>
       </c>
       <c r="C4" t="n">
-        <v>2331.694750976562</v>
+        <v>2367.310815429687</v>
       </c>
       <c r="D4" t="n">
         <v>21</v>
@@ -621,22 +621,22 @@
         <v>34658.327</v>
       </c>
       <c r="H4" t="n">
-        <v>7.473634600856528</v>
+        <v>7.353099895012244</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06727661006189256</v>
+        <v>0.06830424375157196</v>
       </c>
       <c r="J4" t="n">
-        <v>28.75469512517591</v>
+        <v>29.19391602854643</v>
       </c>
       <c r="K4" t="n">
-        <v>108012.871171875</v>
+        <v>106270.840640625</v>
       </c>
       <c r="L4" t="n">
-        <v>3031.203176269531</v>
+        <v>3077.504060058594</v>
       </c>
       <c r="M4" t="n">
-        <v>8.297440756885933</v>
+        <v>8.17073236319543</v>
       </c>
     </row>
     <row r="5">
@@ -644,10 +644,10 @@
         <v>45444</v>
       </c>
       <c r="B5" t="n">
-        <v>266126.021875</v>
+        <v>249832.7796875</v>
       </c>
       <c r="C5" t="n">
-        <v>2512.149951171875</v>
+        <v>2393.429907226563</v>
       </c>
       <c r="D5" t="n">
         <v>19</v>
@@ -666,22 +666,22 @@
         <v>34658.327</v>
       </c>
       <c r="H5" t="n">
-        <v>7.678559379828115</v>
+        <v>7.208448915826203</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07248330108870735</v>
+        <v>0.06905786038739155</v>
       </c>
       <c r="J5" t="n">
-        <v>34.24114865294519</v>
+        <v>32.62296870675236</v>
       </c>
       <c r="K5" t="n">
-        <v>110974.551121875</v>
+        <v>104180.2691296875</v>
       </c>
       <c r="L5" t="n">
-        <v>3265.794936523437</v>
+        <v>3111.458879394531</v>
       </c>
       <c r="M5" t="n">
-        <v>8.536272728014749</v>
+        <v>8.017057750134262</v>
       </c>
     </row>
     <row r="6">
@@ -689,10 +689,10 @@
         <v>45474</v>
       </c>
       <c r="B6" t="n">
-        <v>271557.34375</v>
+        <v>266543.9828125</v>
       </c>
       <c r="C6" t="n">
-        <v>2326.94580078125</v>
+        <v>2319.822045898437</v>
       </c>
       <c r="D6" t="n">
         <v>23</v>
@@ -711,22 +711,22 @@
         <v>34658.327</v>
       </c>
       <c r="H6" t="n">
-        <v>7.835269825632381</v>
+        <v>7.690618846446339</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06713958815095865</v>
+        <v>0.06693404577487071</v>
       </c>
       <c r="J6" t="n">
-        <v>26.20081488817899</v>
+        <v>26.12060322921784</v>
       </c>
       <c r="K6" t="n">
-        <v>113239.41234375</v>
+        <v>111148.8408328125</v>
       </c>
       <c r="L6" t="n">
-        <v>3025.029541015625</v>
+        <v>3015.768659667969</v>
       </c>
       <c r="M6" t="n">
-        <v>8.687517315392611</v>
+        <v>8.530613536630398</v>
       </c>
     </row>
     <row r="7">
@@ -734,10 +734,10 @@
         <v>45505</v>
       </c>
       <c r="B7" t="n">
-        <v>254846.140625</v>
+        <v>299548.8</v>
       </c>
       <c r="C7" t="n">
-        <v>2184.47998046875</v>
+        <v>2478.907983398437</v>
       </c>
       <c r="D7" t="n">
         <v>21</v>
@@ -756,22 +756,22 @@
         <v>34658.327</v>
       </c>
       <c r="H7" t="n">
-        <v>7.353099895012244</v>
+        <v>8.642909970813076</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0630290083092802</v>
+        <v>0.07152416743596532</v>
       </c>
       <c r="J7" t="n">
-        <v>26.93922770942521</v>
+        <v>30.57014357309551</v>
       </c>
       <c r="K7" t="n">
-        <v>106270.840640625</v>
+        <v>124911.8496</v>
       </c>
       <c r="L7" t="n">
-        <v>2839.823974609375</v>
+        <v>3222.580378417969</v>
       </c>
       <c r="M7" t="n">
-        <v>8.152972420220685</v>
+        <v>9.574467146531148</v>
       </c>
     </row>
     <row r="8">
@@ -782,7 +782,7 @@
         <v>270303.925</v>
       </c>
       <c r="C8" t="n">
-        <v>2217.721948242187</v>
+        <v>2421.923095703125</v>
       </c>
       <c r="D8" t="n">
         <v>21</v>
@@ -804,19 +804,19 @@
         <v>7.799104815417086</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06398814196202221</v>
+        <v>0.06987997706014849</v>
       </c>
       <c r="J8" t="n">
-        <v>27.34917101280392</v>
+        <v>29.86740018366393</v>
       </c>
       <c r="K8" t="n">
         <v>112716.736725</v>
       </c>
       <c r="L8" t="n">
-        <v>2883.038532714844</v>
+        <v>3148.500024414062</v>
       </c>
       <c r="M8" t="n">
-        <v>8.637852063163644</v>
+        <v>8.657687889735561</v>
       </c>
     </row>
     <row r="9">
@@ -824,10 +824,10 @@
         <v>45566</v>
       </c>
       <c r="B9" t="n">
-        <v>265290.5640625</v>
+        <v>278241.8359375</v>
       </c>
       <c r="C9" t="n">
-        <v>2148.863037109375</v>
+        <v>2253.33740234375</v>
       </c>
       <c r="D9" t="n">
         <v>22</v>
@@ -846,22 +846,22 @@
         <v>34658.327</v>
       </c>
       <c r="H9" t="n">
-        <v>7.654453836231046</v>
+        <v>8.028138113461161</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06200134926043531</v>
+        <v>0.06501575804117002</v>
       </c>
       <c r="J9" t="n">
-        <v>25.29545069605343</v>
+        <v>26.52527600792746</v>
       </c>
       <c r="K9" t="n">
-        <v>110626.1652140625</v>
+        <v>116026.8455859375</v>
       </c>
       <c r="L9" t="n">
-        <v>2793.521948242188</v>
+        <v>2929.338623046875</v>
       </c>
       <c r="M9" t="n">
-        <v>8.47495141382557</v>
+        <v>8.888649817051228</v>
       </c>
     </row>
     <row r="10">
@@ -869,10 +869,10 @@
         <v>45597</v>
       </c>
       <c r="B10" t="n">
-        <v>266543.9828125</v>
+        <v>271974.9375</v>
       </c>
       <c r="C10" t="n">
-        <v>2288.953393554687</v>
+        <v>2376.8078125</v>
       </c>
       <c r="D10" t="n">
         <v>21</v>
@@ -891,22 +891,22 @@
         <v>34658.327</v>
       </c>
       <c r="H10" t="n">
-        <v>7.690618846446339</v>
+        <v>7.8473186977548</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06604338961758563</v>
+        <v>0.06857826150985304</v>
       </c>
       <c r="J10" t="n">
-        <v>28.2276043893978</v>
+        <v>29.31103395543079</v>
       </c>
       <c r="K10" t="n">
-        <v>111148.8408328125</v>
+        <v>113413.5489375</v>
       </c>
       <c r="L10" t="n">
-        <v>2975.639411621094</v>
+        <v>3089.850156250001</v>
       </c>
       <c r="M10" t="n">
-        <v>8.527614996994293</v>
+        <v>8.705372687654641</v>
       </c>
     </row>
     <row r="11">
@@ -914,10 +914,10 @@
         <v>45627</v>
       </c>
       <c r="B11" t="n">
-        <v>278659.51875</v>
+        <v>259023.671875</v>
       </c>
       <c r="C11" t="n">
-        <v>2136.991455078125</v>
+        <v>2201.099853515625</v>
       </c>
       <c r="D11" t="n">
         <v>21</v>
@@ -936,22 +936,22 @@
         <v>34658.327</v>
       </c>
       <c r="H11" t="n">
-        <v>8.040189555312351</v>
+        <v>7.473634600856528</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06165881737679159</v>
+        <v>0.06350854308448371</v>
       </c>
       <c r="J11" t="n">
-        <v>26.35359441888421</v>
+        <v>27.14418566212544</v>
       </c>
       <c r="K11" t="n">
-        <v>116201.01931875</v>
+        <v>108012.871171875</v>
       </c>
       <c r="L11" t="n">
-        <v>2778.088891601562</v>
+        <v>2861.429809570312</v>
       </c>
       <c r="M11" t="n">
-        <v>8.89036274540307</v>
+        <v>8.284754943072336</v>
       </c>
     </row>
     <row r="12">
@@ -959,10 +959,10 @@
         <v>45352</v>
       </c>
       <c r="B12" t="n">
-        <v>401385.203125</v>
+        <v>405077.896875</v>
       </c>
       <c r="C12" t="n">
-        <v>2645.991235351562</v>
+        <v>2566.635693359375</v>
       </c>
       <c r="D12" t="n">
         <v>20</v>
@@ -981,22 +981,22 @@
         <v>36789.357</v>
       </c>
       <c r="H12" t="n">
-        <v>10.91036201380198</v>
+        <v>11.0107359820124</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07192273665863641</v>
+        <v>0.06976571222376556</v>
       </c>
       <c r="J12" t="n">
-        <v>32.27752084192463</v>
+        <v>31.30949036383624</v>
       </c>
       <c r="K12" t="n">
-        <v>167377.629703125</v>
+        <v>168917.482996875</v>
       </c>
       <c r="L12" t="n">
-        <v>3439.788605957031</v>
+        <v>3336.626401367188</v>
       </c>
       <c r="M12" t="n">
-        <v>11.32796037039103</v>
+        <v>11.42323624965208</v>
       </c>
     </row>
     <row r="13">
@@ -1004,10 +1004,10 @@
         <v>45383</v>
       </c>
       <c r="B13" t="n">
-        <v>403970.19375</v>
+        <v>413570.9375</v>
       </c>
       <c r="C13" t="n">
-        <v>2430.24560546875</v>
+        <v>2410.405395507812</v>
       </c>
       <c r="D13" t="n">
         <v>21</v>
@@ -1026,22 +1026,22 @@
         <v>36789.357</v>
       </c>
       <c r="H13" t="n">
-        <v>10.98062664563558</v>
+        <v>11.24159189572136</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06605838763283495</v>
+        <v>0.06551909552286582</v>
       </c>
       <c r="J13" t="n">
-        <v>28.23401469092132</v>
+        <v>28.00351585646298</v>
       </c>
       <c r="K13" t="n">
-        <v>168455.57079375</v>
+        <v>172459.0809375</v>
       </c>
       <c r="L13" t="n">
-        <v>3159.319287109375</v>
+        <v>3133.527014160156</v>
       </c>
       <c r="M13" t="n">
-        <v>11.38084565993951</v>
+        <v>11.64463275408406</v>
       </c>
     </row>
     <row r="14">
@@ -1049,10 +1049,10 @@
         <v>45413</v>
       </c>
       <c r="B14" t="n">
-        <v>413570.9375</v>
+        <v>408770.390625</v>
       </c>
       <c r="C14" t="n">
-        <v>2298.813134765625</v>
+        <v>2415.3666015625</v>
       </c>
       <c r="D14" t="n">
         <v>21</v>
@@ -1071,22 +1071,22 @@
         <v>36789.357</v>
       </c>
       <c r="H14" t="n">
-        <v>11.24159189572136</v>
+        <v>11.11110451386796</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06248581987354725</v>
+        <v>0.06565394990628674</v>
       </c>
       <c r="J14" t="n">
-        <v>26.70706354641741</v>
+        <v>28.06115396691466</v>
       </c>
       <c r="K14" t="n">
-        <v>172459.0809375</v>
+        <v>170457.252890625</v>
       </c>
       <c r="L14" t="n">
-        <v>2988.457075195312</v>
+        <v>3139.97658203125</v>
       </c>
       <c r="M14" t="n">
-        <v>11.63501226844626</v>
+        <v>11.51230685571936</v>
       </c>
     </row>
     <row r="15">
@@ -1094,10 +1094,10 @@
         <v>45444</v>
       </c>
       <c r="B15" t="n">
-        <v>405077.896875</v>
+        <v>406185.75</v>
       </c>
       <c r="C15" t="n">
-        <v>2400.487524414063</v>
+        <v>2092.985913085938</v>
       </c>
       <c r="D15" t="n">
         <v>19</v>
@@ -1116,22 +1116,22 @@
         <v>36789.357</v>
       </c>
       <c r="H15" t="n">
-        <v>11.0107359820124</v>
+        <v>11.04084939565538</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06524951018888595</v>
+        <v>0.0568910707813115</v>
       </c>
       <c r="J15" t="n">
-        <v>30.82390211747115</v>
+        <v>26.87537104945138</v>
       </c>
       <c r="K15" t="n">
-        <v>168917.482996875</v>
+        <v>169379.45775</v>
       </c>
       <c r="L15" t="n">
-        <v>3120.633781738281</v>
+        <v>2720.881687011719</v>
       </c>
       <c r="M15" t="n">
-        <v>11.40891244204701</v>
+        <v>11.41303881168458</v>
       </c>
     </row>
     <row r="16">
@@ -1139,10 +1139,10 @@
         <v>45474</v>
       </c>
       <c r="B16" t="n">
-        <v>400646.784375</v>
+        <v>409878.09375</v>
       </c>
       <c r="C16" t="n">
-        <v>2050.829077148438</v>
+        <v>1986.3533203125</v>
       </c>
       <c r="D16" t="n">
         <v>23</v>
@@ -1161,22 +1161,22 @@
         <v>36789.357</v>
       </c>
       <c r="H16" t="n">
-        <v>10.89029048197282</v>
+        <v>11.14121385024479</v>
       </c>
       <c r="I16" t="n">
-        <v>0.05574517318007046</v>
+        <v>0.05399260770750899</v>
       </c>
       <c r="J16" t="n">
-        <v>21.75421392392993</v>
+        <v>21.07028593463765</v>
       </c>
       <c r="K16" t="n">
-        <v>167069.709084375</v>
+        <v>170919.16509375</v>
       </c>
       <c r="L16" t="n">
-        <v>2666.077800292969</v>
+        <v>2582.25931640625</v>
       </c>
       <c r="M16" t="n">
-        <v>11.25623069532381</v>
+        <v>11.50595342899025</v>
       </c>
     </row>
     <row r="17">
@@ -1184,10 +1184,10 @@
         <v>45505</v>
       </c>
       <c r="B17" t="n">
-        <v>412463.084375</v>
+        <v>428341.3125</v>
       </c>
       <c r="C17" t="n">
-        <v>1968.995593261719</v>
+        <v>2132.6650390625</v>
       </c>
       <c r="D17" t="n">
         <v>21</v>
@@ -1206,22 +1206,22 @@
         <v>36789.357</v>
       </c>
       <c r="H17" t="n">
-        <v>11.21147848207839</v>
+        <v>11.64307689585333</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05352079388780072</v>
+        <v>0.05796961982952026</v>
       </c>
       <c r="J17" t="n">
-        <v>22.8753218939729</v>
+        <v>24.77679453805279</v>
       </c>
       <c r="K17" t="n">
-        <v>171997.106184375</v>
+        <v>178618.3273125</v>
       </c>
       <c r="L17" t="n">
-        <v>2559.694271240235</v>
+        <v>2772.46455078125</v>
       </c>
       <c r="M17" t="n">
-        <v>11.57594194735778</v>
+        <v>12.02914622010681</v>
       </c>
     </row>
     <row r="18">
@@ -1229,10 +1229,10 @@
         <v>45536</v>
       </c>
       <c r="B18" t="n">
-        <v>403970.19375</v>
+        <v>428341.3125</v>
       </c>
       <c r="C18" t="n">
-        <v>1795.40517578125</v>
+        <v>2199.61953125</v>
       </c>
       <c r="D18" t="n">
         <v>21</v>
@@ -1251,22 +1251,22 @@
         <v>36789.357</v>
       </c>
       <c r="H18" t="n">
-        <v>10.98062664563558</v>
+        <v>11.64307689585333</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04880229833267404</v>
+        <v>0.05978956172705056</v>
       </c>
       <c r="J18" t="n">
-        <v>20.8585897635587</v>
+        <v>25.55465588333868</v>
       </c>
       <c r="K18" t="n">
-        <v>168455.57079375</v>
+        <v>178618.3273125</v>
       </c>
       <c r="L18" t="n">
-        <v>2334.026728515625</v>
+        <v>2859.505390625</v>
       </c>
       <c r="M18" t="n">
-        <v>11.32611540180616</v>
+        <v>12.03491843698092</v>
       </c>
     </row>
     <row r="19">
@@ -1274,10 +1274,10 @@
         <v>45566</v>
       </c>
       <c r="B19" t="n">
-        <v>401385.203125</v>
+        <v>417263.28125</v>
       </c>
       <c r="C19" t="n">
-        <v>2100.425927734375</v>
+        <v>2038.431030273438</v>
       </c>
       <c r="D19" t="n">
         <v>22</v>
@@ -1296,22 +1296,22 @@
         <v>36789.357</v>
       </c>
       <c r="H19" t="n">
-        <v>10.91036201380198</v>
+        <v>11.34195635031077</v>
       </c>
       <c r="I19" t="n">
-        <v>0.05709330358055387</v>
+        <v>0.05540817226768702</v>
       </c>
       <c r="J19" t="n">
-        <v>23.29305511933905</v>
+        <v>22.6055514351539</v>
       </c>
       <c r="K19" t="n">
-        <v>167377.629703125</v>
+        <v>173998.78828125</v>
       </c>
       <c r="L19" t="n">
-        <v>2730.553706054688</v>
+        <v>2649.960339355469</v>
       </c>
       <c r="M19" t="n">
-        <v>11.28092661400411</v>
+        <v>11.714671979368</v>
       </c>
     </row>
     <row r="20">
@@ -1319,10 +1319,10 @@
         <v>45597</v>
       </c>
       <c r="B20" t="n">
-        <v>411355.38125</v>
+        <v>405077.896875</v>
       </c>
       <c r="C20" t="n">
-        <v>1859.880981445312</v>
+        <v>2018.592395019531</v>
       </c>
       <c r="D20" t="n">
         <v>21</v>
@@ -1341,22 +1341,22 @@
         <v>36789.357</v>
       </c>
       <c r="H20" t="n">
-        <v>11.18136914570157</v>
+        <v>11.0107359820124</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05055486513247057</v>
+        <v>0.05486892296104906</v>
       </c>
       <c r="J20" t="n">
-        <v>21.60765431910473</v>
+        <v>23.45152572551225</v>
       </c>
       <c r="K20" t="n">
-        <v>171535.19398125</v>
+        <v>168917.482996875</v>
       </c>
       <c r="L20" t="n">
-        <v>2417.845275878906</v>
+        <v>2624.170113525391</v>
       </c>
       <c r="M20" t="n">
-        <v>11.53590280499551</v>
+        <v>11.37598886309045</v>
       </c>
     </row>
     <row r="21">
@@ -1364,10 +1364,10 @@
         <v>45627</v>
       </c>
       <c r="B21" t="n">
-        <v>391415.375</v>
+        <v>423540.765625</v>
       </c>
       <c r="C21" t="n">
-        <v>1678.853930664063</v>
+        <v>2038.431030273438</v>
       </c>
       <c r="D21" t="n">
         <v>21</v>
@@ -1386,22 +1386,22 @@
         <v>36789.357</v>
       </c>
       <c r="H21" t="n">
-        <v>10.63936439552341</v>
+        <v>11.51258951399993</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04563422868913045</v>
+        <v>0.05540817226768702</v>
       </c>
       <c r="J21" t="n">
-        <v>19.50452515400697</v>
+        <v>23.68200626539933</v>
       </c>
       <c r="K21" t="n">
-        <v>163220.211375</v>
+        <v>176616.499265625</v>
       </c>
       <c r="L21" t="n">
-        <v>2182.510109863281</v>
+        <v>2649.960339355469</v>
       </c>
       <c r="M21" t="n">
-        <v>10.9688783069246</v>
+        <v>11.88826859841116</v>
       </c>
     </row>
     <row r="22">
@@ -1409,10 +1409,10 @@
         <v>45352</v>
       </c>
       <c r="B22" t="n">
-        <v>123491.86328125</v>
+        <v>116072.0390625</v>
       </c>
       <c r="C22" t="n">
-        <v>790.7025573730468</v>
+        <v>848.8428344726562</v>
       </c>
       <c r="D22" t="n">
         <v>20</v>
@@ -1431,22 +1431,22 @@
         <v>10970</v>
       </c>
       <c r="H22" t="n">
-        <v>11.25723457440747</v>
+        <v>10.58086044325433</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07207862874868248</v>
+        <v>0.0773785628507435</v>
       </c>
       <c r="J22" t="n">
-        <v>32.34748217014042</v>
+        <v>34.72598918179708</v>
       </c>
       <c r="K22" t="n">
-        <v>51496.10698828124</v>
+        <v>48402.0402890625</v>
       </c>
       <c r="L22" t="n">
-        <v>1027.913324584961</v>
+        <v>1103.495684814453</v>
       </c>
       <c r="M22" t="n">
-        <v>39.17496953651072</v>
+        <v>36.92363707334486</v>
       </c>
     </row>
     <row r="23">
@@ -1454,10 +1454,10 @@
         <v>45383</v>
       </c>
       <c r="B23" t="n">
-        <v>121728.72578125</v>
+        <v>111737.73828125</v>
       </c>
       <c r="C23" t="n">
-        <v>779.7207092285156</v>
+        <v>894.7088317871094</v>
       </c>
       <c r="D23" t="n">
         <v>21</v>
@@ -1476,22 +1476,22 @@
         <v>10970</v>
       </c>
       <c r="H23" t="n">
-        <v>11.0965110101413</v>
+        <v>10.18575554067912</v>
       </c>
       <c r="I23" t="n">
-        <v>0.07107754869904427</v>
+        <v>0.08155960180374744</v>
       </c>
       <c r="J23" t="n">
-        <v>30.37925426393529</v>
+        <v>34.8593884596737</v>
       </c>
       <c r="K23" t="n">
-        <v>50760.87865078125</v>
+        <v>46594.63686328124</v>
       </c>
       <c r="L23" t="n">
-        <v>1013.63692199707</v>
+        <v>1163.121481323242</v>
       </c>
       <c r="M23" t="n">
-        <v>38.61595243946606</v>
+        <v>35.62005949159277</v>
       </c>
     </row>
     <row r="24">
@@ -1499,10 +1499,10 @@
         <v>45413</v>
       </c>
       <c r="B24" t="n">
-        <v>118275.984375</v>
+        <v>117541.3046875</v>
       </c>
       <c r="C24" t="n">
-        <v>831.4005798339844</v>
+        <v>826.87890625</v>
       </c>
       <c r="D24" t="n">
         <v>21</v>
@@ -1521,22 +1521,22 @@
         <v>10970</v>
       </c>
       <c r="H24" t="n">
-        <v>10.78176703509572</v>
+        <v>10.71479532247037</v>
       </c>
       <c r="I24" t="n">
-        <v>0.07578856698577797</v>
+        <v>0.07537638160893345</v>
       </c>
       <c r="J24" t="n">
-        <v>32.39279053515249</v>
+        <v>32.21661838802265</v>
       </c>
       <c r="K24" t="n">
-        <v>49321.085484375</v>
+        <v>49014.7240546875</v>
       </c>
       <c r="L24" t="n">
-        <v>1080.82075378418</v>
+        <v>1074.942578125</v>
       </c>
       <c r="M24" t="n">
-        <v>37.59219362304387</v>
+        <v>37.35931013555211</v>
       </c>
     </row>
     <row r="25">
@@ -1544,10 +1544,10 @@
         <v>45444</v>
       </c>
       <c r="B25" t="n">
-        <v>115704.75546875</v>
+        <v>109974.603125</v>
       </c>
       <c r="C25" t="n">
-        <v>812.6664855957031</v>
+        <v>807.49853515625</v>
       </c>
       <c r="D25" t="n">
         <v>19</v>
@@ -1566,22 +1566,22 @@
         <v>10970</v>
       </c>
       <c r="H25" t="n">
-        <v>10.54737971456244</v>
+        <v>10.02503219006381</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07408080999049253</v>
+        <v>0.07360971150011394</v>
       </c>
       <c r="J25" t="n">
-        <v>34.99581267843549</v>
+        <v>34.77326550968155</v>
       </c>
       <c r="K25" t="n">
-        <v>48248.88303046874</v>
+        <v>45859.409503125</v>
       </c>
       <c r="L25" t="n">
-        <v>1056.466431274414</v>
+        <v>1049.748095703125</v>
       </c>
       <c r="M25" t="n">
-        <v>36.77432823392724</v>
+        <v>34.98713177268573</v>
       </c>
     </row>
     <row r="26">
@@ -1589,10 +1589,10 @@
         <v>45474</v>
       </c>
       <c r="B26" t="n">
-        <v>113133.5078125</v>
+        <v>112178.51796875</v>
       </c>
       <c r="C26" t="n">
-        <v>829.4624450683593</v>
+        <v>839.7988891601562</v>
       </c>
       <c r="D26" t="n">
         <v>23</v>
@@ -1611,22 +1611,22 @@
         <v>10970</v>
       </c>
       <c r="H26" t="n">
-        <v>10.31299068482224</v>
+        <v>10.22593600444394</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0756118910727766</v>
+        <v>0.07655413757157303</v>
       </c>
       <c r="J26" t="n">
-        <v>29.50707944303477</v>
+        <v>29.8747853937846</v>
       </c>
       <c r="K26" t="n">
-        <v>47176.6727578125</v>
+        <v>46778.44199296875</v>
       </c>
       <c r="L26" t="n">
-        <v>1078.301178588867</v>
+        <v>1091.738555908203</v>
       </c>
       <c r="M26" t="n">
-        <v>35.99090706848607</v>
+        <v>35.70390944065165</v>
       </c>
     </row>
     <row r="27">
@@ -1634,10 +1634,10 @@
         <v>45505</v>
       </c>
       <c r="B27" t="n">
-        <v>112913.13203125</v>
+        <v>113207.00390625</v>
       </c>
       <c r="C27" t="n">
-        <v>837.8607543945312</v>
+        <v>801.6846618652344</v>
       </c>
       <c r="D27" t="n">
         <v>21</v>
@@ -1656,22 +1656,22 @@
         <v>10970</v>
       </c>
       <c r="H27" t="n">
-        <v>10.29290173484503</v>
+        <v>10.31969041989517</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07637746165857168</v>
+        <v>0.07307973216638418</v>
       </c>
       <c r="J27" t="n">
-        <v>32.64449000041158</v>
+        <v>31.23500747645688</v>
       </c>
       <c r="K27" t="n">
-        <v>47084.77605703125</v>
+        <v>47207.32062890625</v>
       </c>
       <c r="L27" t="n">
-        <v>1089.218980712891</v>
+        <v>1042.190060424805</v>
       </c>
       <c r="M27" t="n">
-        <v>35.93050906640816</v>
+        <v>35.98683231304514</v>
       </c>
     </row>
     <row r="28">
@@ -1679,10 +1679,10 @@
         <v>45536</v>
       </c>
       <c r="B28" t="n">
-        <v>109974.603125</v>
+        <v>116586.31484375</v>
       </c>
       <c r="C28" t="n">
-        <v>781.6585693359375</v>
+        <v>819.1269165039063</v>
       </c>
       <c r="D28" t="n">
         <v>21</v>
@@ -1701,22 +1701,22 @@
         <v>10970</v>
       </c>
       <c r="H28" t="n">
-        <v>10.02503219006381</v>
+        <v>10.62774064209207</v>
       </c>
       <c r="I28" t="n">
-        <v>0.07125419957483478</v>
+        <v>0.07466972803134971</v>
       </c>
       <c r="J28" t="n">
-        <v>30.45475661270522</v>
+        <v>31.91458759063494</v>
       </c>
       <c r="K28" t="n">
-        <v>45859.409503125</v>
+        <v>48616.49328984375</v>
       </c>
       <c r="L28" t="n">
-        <v>1016.156140136719</v>
+        <v>1064.864991455078</v>
       </c>
       <c r="M28" t="n">
-        <v>34.96207725804373</v>
+        <v>37.05477390361914</v>
       </c>
     </row>
     <row r="29">
@@ -1724,10 +1724,10 @@
         <v>45566</v>
       </c>
       <c r="B29" t="n">
-        <v>112913.13203125</v>
+        <v>112398.921875</v>
       </c>
       <c r="C29" t="n">
-        <v>735.1466918945313</v>
+        <v>824.940771484375</v>
       </c>
       <c r="D29" t="n">
         <v>22</v>
@@ -1746,22 +1746,22 @@
         <v>10970</v>
       </c>
       <c r="H29" t="n">
-        <v>10.29290173484503</v>
+        <v>10.24602751823154</v>
       </c>
       <c r="I29" t="n">
-        <v>0.06701428367315691</v>
+        <v>0.07519970569593208</v>
       </c>
       <c r="J29" t="n">
-        <v>27.34063901521257</v>
+        <v>30.68014600454879</v>
       </c>
       <c r="K29" t="n">
-        <v>47084.77605703125</v>
+        <v>46870.35042187499</v>
       </c>
       <c r="L29" t="n">
-        <v>955.6906994628907</v>
+        <v>1072.423002929688</v>
       </c>
       <c r="M29" t="n">
-        <v>35.83091717837155</v>
+        <v>35.75805273901489</v>
       </c>
     </row>
     <row r="30">
@@ -1769,10 +1769,10 @@
         <v>45597</v>
       </c>
       <c r="B30" t="n">
-        <v>110929.61171875</v>
+        <v>111811.16875</v>
       </c>
       <c r="C30" t="n">
-        <v>767.4470458984375</v>
+        <v>749.3590698242188</v>
       </c>
       <c r="D30" t="n">
         <v>21</v>
@@ -1791,22 +1791,22 @@
         <v>10970</v>
       </c>
       <c r="H30" t="n">
-        <v>10.11208857964904</v>
+        <v>10.1924492935278</v>
       </c>
       <c r="I30" t="n">
-        <v>0.069958709744616</v>
+        <v>0.06830985139692058</v>
       </c>
       <c r="J30" t="n">
-        <v>29.90105131941775</v>
+        <v>29.19631279217976</v>
       </c>
       <c r="K30" t="n">
-        <v>46257.64808671875</v>
+        <v>46625.25736875</v>
       </c>
       <c r="L30" t="n">
-        <v>997.6811596679688</v>
+        <v>974.1667907714844</v>
       </c>
       <c r="M30" t="n">
-        <v>35.24532342798425</v>
+        <v>35.50196615372055</v>
       </c>
     </row>
     <row r="31">
@@ -1814,10 +1814,10 @@
         <v>45627</v>
       </c>
       <c r="B31" t="n">
-        <v>112178.51796875</v>
+        <v>106301.46328125</v>
       </c>
       <c r="C31" t="n">
-        <v>759.0487365722656</v>
+        <v>786.1808410644531</v>
       </c>
       <c r="D31" t="n">
         <v>21</v>
@@ -1836,22 +1836,22 @@
         <v>10970</v>
       </c>
       <c r="H31" t="n">
-        <v>10.22593600444394</v>
+        <v>9.690197199749317</v>
       </c>
       <c r="I31" t="n">
-        <v>0.06919313915882093</v>
+        <v>0.07166643947716073</v>
       </c>
       <c r="J31" t="n">
-        <v>29.57383880423473</v>
+        <v>30.63095206457043</v>
       </c>
       <c r="K31" t="n">
-        <v>46778.44199296875</v>
+        <v>44327.71018828125</v>
       </c>
       <c r="L31" t="n">
-        <v>986.7633575439453</v>
+        <v>1022.035093383789</v>
       </c>
       <c r="M31" t="n">
-        <v>35.62561383088087</v>
+        <v>33.82404620429563</v>
       </c>
     </row>
     <row r="32">
@@ -1859,10 +1859,10 @@
         <v>45352</v>
       </c>
       <c r="B32" t="n">
-        <v>108558.5296875</v>
+        <v>106837.94609375</v>
       </c>
       <c r="C32" t="n">
-        <v>735.5491271972656</v>
+        <v>772.7584594726562</v>
       </c>
       <c r="D32" t="n">
         <v>20</v>
@@ -1881,22 +1881,22 @@
         <v>10965</v>
       </c>
       <c r="H32" t="n">
-        <v>9.90045870383037</v>
+        <v>9.743542735408116</v>
       </c>
       <c r="I32" t="n">
-        <v>0.06708154374804064</v>
+        <v>0.07047500770384461</v>
       </c>
       <c r="J32" t="n">
-        <v>30.10488792594995</v>
+        <v>31.62780833538392</v>
       </c>
       <c r="K32" t="n">
-        <v>45268.9068796875</v>
+        <v>44551.42352109375</v>
       </c>
       <c r="L32" t="n">
-        <v>956.2138653564454</v>
+        <v>1004.585997314453</v>
       </c>
       <c r="M32" t="n">
-        <v>34.50839370022256</v>
+        <v>34.00888275756135</v>
       </c>
     </row>
     <row r="33">
@@ -1904,10 +1904,10 @@
         <v>45383</v>
       </c>
       <c r="B33" t="n">
-        <v>107903.0828125</v>
+        <v>106837.94609375</v>
       </c>
       <c r="C33" t="n">
-        <v>784.7186157226563</v>
+        <v>773.4227844238281</v>
       </c>
       <c r="D33" t="n">
         <v>21</v>
@@ -1926,22 +1926,22 @@
         <v>10965</v>
       </c>
       <c r="H33" t="n">
-        <v>9.840682427040583</v>
+        <v>9.743542735408116</v>
       </c>
       <c r="I33" t="n">
-        <v>0.07156576522778443</v>
+        <v>0.0705355936547039</v>
       </c>
       <c r="J33" t="n">
-        <v>30.58792288481378</v>
+        <v>30.14761726472826</v>
       </c>
       <c r="K33" t="n">
-        <v>44995.5855328125</v>
+        <v>44551.42352109375</v>
       </c>
       <c r="L33" t="n">
-        <v>1020.134200439453</v>
+        <v>1005.449619750977</v>
       </c>
       <c r="M33" t="n">
-        <v>34.35206976986446</v>
+        <v>34.00952747676528</v>
       </c>
     </row>
     <row r="34">
@@ -1949,10 +1949,10 @@
         <v>45413</v>
       </c>
       <c r="B34" t="n">
-        <v>103560.71171875</v>
+        <v>105772.88046875</v>
       </c>
       <c r="C34" t="n">
-        <v>714.2866455078125</v>
+        <v>730.8982543945312</v>
       </c>
       <c r="D34" t="n">
         <v>21</v>
@@ -1971,22 +1971,22 @@
         <v>10965</v>
       </c>
       <c r="H34" t="n">
-        <v>9.444661351459189</v>
+        <v>9.64640952747378</v>
       </c>
       <c r="I34" t="n">
-        <v>0.06514242093094505</v>
+        <v>0.06665738754168092</v>
       </c>
       <c r="J34" t="n">
-        <v>27.84252137350497</v>
+        <v>28.49003323500416</v>
       </c>
       <c r="K34" t="n">
-        <v>43184.81678671874</v>
+        <v>44107.29115546875</v>
       </c>
       <c r="L34" t="n">
-        <v>928.5726391601563</v>
+        <v>950.1677307128906</v>
       </c>
       <c r="M34" t="n">
-        <v>32.93192500579193</v>
+        <v>33.63670024685988</v>
       </c>
     </row>
     <row r="35">
@@ -1994,10 +1994,10 @@
         <v>45444</v>
       </c>
       <c r="B35" t="n">
-        <v>104625.8484375</v>
+        <v>108804.3375</v>
       </c>
       <c r="C35" t="n">
-        <v>715.6157653808593</v>
+        <v>782.0609558105468</v>
       </c>
       <c r="D35" t="n">
         <v>19</v>
@@ -2016,22 +2016,22 @@
         <v>10965</v>
       </c>
       <c r="H35" t="n">
-        <v>9.541801043091654</v>
+        <v>9.922876196990423</v>
       </c>
       <c r="I35" t="n">
-        <v>0.06526363569364882</v>
+        <v>0.0713233885828132</v>
       </c>
       <c r="J35" t="n">
-        <v>30.83057501317428</v>
+        <v>33.69320538957029</v>
       </c>
       <c r="K35" t="n">
-        <v>43628.9787984375</v>
+        <v>45371.40873749999</v>
       </c>
       <c r="L35" t="n">
-        <v>930.3004949951171</v>
+        <v>1016.679242553711</v>
       </c>
       <c r="M35" t="n">
-        <v>33.26479472789283</v>
+        <v>34.63005346909524</v>
       </c>
     </row>
     <row r="36">
@@ -2039,10 +2039,10 @@
         <v>45474</v>
       </c>
       <c r="B36" t="n">
-        <v>107083.75390625</v>
+        <v>105445.13671875</v>
       </c>
       <c r="C36" t="n">
-        <v>711.6290466308594</v>
+        <v>767.4428344726563</v>
       </c>
       <c r="D36" t="n">
         <v>23</v>
@@ -2061,22 +2061,22 @@
         <v>10965</v>
       </c>
       <c r="H36" t="n">
-        <v>9.765960228568172</v>
+        <v>9.616519536593707</v>
       </c>
       <c r="I36" t="n">
-        <v>0.06490004985233556</v>
+        <v>0.0699902265820936</v>
       </c>
       <c r="J36" t="n">
-        <v>25.32684872286265</v>
+        <v>27.31325915398774</v>
       </c>
       <c r="K36" t="n">
-        <v>44653.92537890625</v>
+        <v>43970.62201171875</v>
       </c>
       <c r="L36" t="n">
-        <v>925.1177606201172</v>
+        <v>997.6756848144532</v>
       </c>
       <c r="M36" t="n">
-        <v>34.02607802396794</v>
+        <v>33.57013883207983</v>
       </c>
     </row>
     <row r="37">
@@ -2087,7 +2087,7 @@
         <v>106264.465625</v>
       </c>
       <c r="C37" t="n">
-        <v>782.0609558105468</v>
+        <v>713.6225341796875</v>
       </c>
       <c r="D37" t="n">
         <v>21</v>
@@ -2109,19 +2109,19 @@
         <v>9.69124173506612</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0713233885828132</v>
+        <v>0.0650818544623518</v>
       </c>
       <c r="J37" t="n">
-        <v>30.4843286858017</v>
+        <v>27.81663465986697</v>
       </c>
       <c r="K37" t="n">
         <v>44312.28216562499</v>
       </c>
       <c r="L37" t="n">
-        <v>1016.679242553711</v>
+        <v>927.7092944335938</v>
       </c>
       <c r="M37" t="n">
-        <v>33.83938475624936</v>
+        <v>33.77296610881842</v>
       </c>
     </row>
     <row r="38">
@@ -2129,10 +2129,10 @@
         <v>45536</v>
       </c>
       <c r="B38" t="n">
-        <v>103806.51953125</v>
+        <v>108804.3375</v>
       </c>
       <c r="C38" t="n">
-        <v>728.9047668457031</v>
+        <v>717.6092529296875</v>
       </c>
       <c r="D38" t="n">
         <v>21</v>
@@ -2151,22 +2151,22 @@
         <v>10965</v>
       </c>
       <c r="H38" t="n">
-        <v>9.467078844619243</v>
+        <v>9.922876196990423</v>
       </c>
       <c r="I38" t="n">
-        <v>0.06647558293166467</v>
+        <v>0.06544544030366507</v>
       </c>
       <c r="J38" t="n">
-        <v>28.41232812874866</v>
+        <v>27.97203488007984</v>
       </c>
       <c r="K38" t="n">
-        <v>43287.31864453125</v>
+        <v>45371.40873749999</v>
       </c>
       <c r="L38" t="n">
-        <v>947.5761968994141</v>
+        <v>932.8920288085938</v>
       </c>
       <c r="M38" t="n">
-        <v>33.02263232356609</v>
+        <v>34.56750388323459</v>
       </c>
     </row>
     <row r="39">
@@ -2174,10 +2174,10 @@
         <v>45566</v>
       </c>
       <c r="B39" t="n">
-        <v>104625.8484375</v>
+        <v>107165.7203125</v>
       </c>
       <c r="C39" t="n">
-        <v>777.4094848632812</v>
+        <v>722.2600830078125</v>
       </c>
       <c r="D39" t="n">
         <v>22</v>
@@ -2196,22 +2196,22 @@
         <v>10965</v>
       </c>
       <c r="H39" t="n">
-        <v>9.541801043091654</v>
+        <v>9.773435505015959</v>
       </c>
       <c r="I39" t="n">
-        <v>0.07089917782610865</v>
+        <v>0.06586959261357159</v>
       </c>
       <c r="J39" t="n">
-        <v>28.92560691796893</v>
+        <v>26.87362536784295</v>
       </c>
       <c r="K39" t="n">
-        <v>43628.9787984375</v>
+        <v>44688.10537031249</v>
       </c>
       <c r="L39" t="n">
-        <v>1010.632330322266</v>
+        <v>938.9381079101562</v>
       </c>
       <c r="M39" t="n">
-        <v>33.32476477351847</v>
+        <v>34.06191166937065</v>
       </c>
     </row>
     <row r="40">
@@ -2219,10 +2219,10 @@
         <v>45597</v>
       </c>
       <c r="B40" t="n">
-        <v>103560.71171875</v>
+        <v>104625.8484375</v>
       </c>
       <c r="C40" t="n">
-        <v>709.6358154296875</v>
+        <v>715.6157653808593</v>
       </c>
       <c r="D40" t="n">
         <v>21</v>
@@ -2241,22 +2241,22 @@
         <v>10965</v>
       </c>
       <c r="H40" t="n">
-        <v>9.444661351459189</v>
+        <v>9.541801043091654</v>
       </c>
       <c r="I40" t="n">
-        <v>0.06471826862103852</v>
+        <v>0.06526363569364882</v>
       </c>
       <c r="J40" t="n">
-        <v>27.6612344396541</v>
+        <v>27.89432977382435</v>
       </c>
       <c r="K40" t="n">
-        <v>43184.81678671874</v>
+        <v>43628.9787984375</v>
       </c>
       <c r="L40" t="n">
-        <v>922.5265600585938</v>
+        <v>930.3004949951171</v>
       </c>
       <c r="M40" t="n">
-        <v>32.92741143233627</v>
+        <v>33.26479472789283</v>
       </c>
     </row>
     <row r="41">
@@ -2264,10 +2264,10 @@
         <v>45627</v>
       </c>
       <c r="B41" t="n">
-        <v>104871.65625</v>
+        <v>111426.125</v>
       </c>
       <c r="C41" t="n">
-        <v>740.2005981445312</v>
+        <v>713.6225341796875</v>
       </c>
       <c r="D41" t="n">
         <v>21</v>
@@ -2286,22 +2286,22 @@
         <v>10965</v>
       </c>
       <c r="H41" t="n">
-        <v>9.56421853625171</v>
+        <v>10.16198130414957</v>
       </c>
       <c r="I41" t="n">
-        <v>0.06750575450474521</v>
+        <v>0.0650818544623518</v>
       </c>
       <c r="J41" t="n">
-        <v>28.85263374883419</v>
+        <v>27.81663465986697</v>
       </c>
       <c r="K41" t="n">
-        <v>43731.48065625</v>
+        <v>46464.69412499999</v>
       </c>
       <c r="L41" t="n">
-        <v>962.2607775878906</v>
+        <v>927.7092944335938</v>
       </c>
       <c r="M41" t="n">
-        <v>33.36517461666528</v>
+        <v>35.37980408137566</v>
       </c>
     </row>
     <row r="42">
@@ -2309,10 +2309,10 @@
         <v>45352</v>
       </c>
       <c r="B42" t="n">
-        <v>83201.5421875</v>
+        <v>81720.43046875</v>
       </c>
       <c r="C42" t="n">
-        <v>480.2621978759765</v>
+        <v>487.8432830810547</v>
       </c>
       <c r="D42" t="n">
         <v>20</v>
@@ -2331,22 +2331,22 @@
         <v>7264</v>
       </c>
       <c r="H42" t="n">
-        <v>11.45395679893998</v>
+        <v>11.2500592605658</v>
       </c>
       <c r="I42" t="n">
-        <v>0.06611539067675888</v>
+        <v>0.06715904227437426</v>
       </c>
       <c r="J42" t="n">
-        <v>29.67129727932594</v>
+        <v>30.13966775240211</v>
       </c>
       <c r="K42" t="n">
-        <v>34695.0430921875</v>
+        <v>34077.41950546874</v>
       </c>
       <c r="L42" t="n">
-        <v>624.3408572387696</v>
+        <v>634.1962680053711</v>
       </c>
       <c r="M42" t="n">
-        <v>60.07937565266382</v>
+        <v>59.04554299564327</v>
       </c>
     </row>
     <row r="43">
@@ -2354,10 +2354,10 @@
         <v>45383</v>
       </c>
       <c r="B43" t="n">
-        <v>78647.11484374999</v>
+        <v>81868.54921875001</v>
       </c>
       <c r="C43" t="n">
-        <v>480.6414123535156</v>
+        <v>430.2270141601563</v>
       </c>
       <c r="D43" t="n">
         <v>21</v>
@@ -2376,22 +2376,22 @@
         <v>7264</v>
       </c>
       <c r="H43" t="n">
-        <v>10.82697065580259</v>
+        <v>11.2704500576473</v>
       </c>
       <c r="I43" t="n">
-        <v>0.06616759531298398</v>
+        <v>0.05922728719165147</v>
       </c>
       <c r="J43" t="n">
-        <v>28.28069114422544</v>
+        <v>25.31433413069423</v>
       </c>
       <c r="K43" t="n">
-        <v>32795.84688984375</v>
+        <v>34139.18502421875</v>
       </c>
       <c r="L43" t="n">
-        <v>624.8338360595703</v>
+        <v>559.2951184082032</v>
       </c>
       <c r="M43" t="n">
-        <v>56.84962214444013</v>
+        <v>59.02319887714927</v>
       </c>
     </row>
     <row r="44">
@@ -2399,7 +2399,7 @@
         <v>45413</v>
       </c>
       <c r="B44" t="n">
-        <v>81387.17265625</v>
+        <v>78499.03125</v>
       </c>
       <c r="C44" t="n">
         <v>430.9852264404297</v>
@@ -2421,7 +2421,7 @@
         <v>7264</v>
       </c>
       <c r="H44" t="n">
-        <v>11.20418125774367</v>
+        <v>10.80658469851322</v>
       </c>
       <c r="I44" t="n">
         <v>0.05933166663552171</v>
@@ -2430,13 +2430,13 @@
         <v>25.35894694758651</v>
       </c>
       <c r="K44" t="n">
-        <v>33938.45099765625</v>
+        <v>32734.09603125</v>
       </c>
       <c r="L44" t="n">
         <v>560.2807943725586</v>
       </c>
       <c r="M44" t="n">
-        <v>58.68342069164156</v>
+        <v>56.63477526369526</v>
       </c>
     </row>
     <row r="45">
@@ -2444,10 +2444,10 @@
         <v>45444</v>
       </c>
       <c r="B45" t="n">
-        <v>79017.41953124999</v>
+        <v>79609.8359375</v>
       </c>
       <c r="C45" t="n">
-        <v>420.3716033935547</v>
+        <v>419.9927307128906</v>
       </c>
       <c r="D45" t="n">
         <v>19</v>
@@ -2466,22 +2466,22 @@
         <v>7264</v>
       </c>
       <c r="H45" t="n">
-        <v>10.87794872401569</v>
+        <v>10.95950384602148</v>
       </c>
       <c r="I45" t="n">
-        <v>0.05787054011475147</v>
+        <v>0.05781838253206094</v>
       </c>
       <c r="J45" t="n">
-        <v>27.33807286550519</v>
+        <v>27.31343359666036</v>
       </c>
       <c r="K45" t="n">
-        <v>32950.26394453125</v>
+        <v>33197.3015859375</v>
       </c>
       <c r="L45" t="n">
-        <v>546.4830844116211</v>
+        <v>545.9905499267578</v>
       </c>
       <c r="M45" t="n">
-        <v>56.97901330260319</v>
+        <v>57.3983942327821</v>
       </c>
     </row>
     <row r="46">
@@ -2489,10 +2489,10 @@
         <v>45474</v>
       </c>
       <c r="B46" t="n">
-        <v>79980.140625</v>
+        <v>82238.81875000001</v>
       </c>
       <c r="C46" t="n">
-        <v>393.0798004150391</v>
+        <v>404.4513244628906</v>
       </c>
       <c r="D46" t="n">
         <v>23</v>
@@ -2511,22 +2511,22 @@
         <v>7264</v>
       </c>
       <c r="H46" t="n">
-        <v>11.01048191423458</v>
+        <v>11.32142328606828</v>
       </c>
       <c r="I46" t="n">
-        <v>0.05411340864744481</v>
+        <v>0.05567887175975917</v>
       </c>
       <c r="J46" t="n">
-        <v>21.11742776485651</v>
+        <v>21.72834019893041</v>
       </c>
       <c r="K46" t="n">
-        <v>33351.718640625</v>
+        <v>34293.58741875</v>
       </c>
       <c r="L46" t="n">
-        <v>511.0037405395508</v>
+        <v>525.7867218017578</v>
       </c>
       <c r="M46" t="n">
-        <v>57.60154881163771</v>
+        <v>59.22884334495416</v>
       </c>
     </row>
     <row r="47">
@@ -2534,10 +2534,10 @@
         <v>45505</v>
       </c>
       <c r="B47" t="n">
-        <v>81461.25</v>
+        <v>81720.43046875</v>
       </c>
       <c r="C47" t="n">
-        <v>421.1298156738281</v>
+        <v>404.4513244628906</v>
       </c>
       <c r="D47" t="n">
         <v>21</v>
@@ -2556,22 +2556,22 @@
         <v>7264</v>
       </c>
       <c r="H47" t="n">
-        <v>11.21437912995595</v>
+        <v>11.2500592605658</v>
       </c>
       <c r="I47" t="n">
-        <v>0.05797491955862172</v>
+        <v>0.05567887175975917</v>
       </c>
       <c r="J47" t="n">
-        <v>24.7790596952065</v>
+        <v>23.79770593216188</v>
       </c>
       <c r="K47" t="n">
-        <v>33969.34125</v>
+        <v>34077.41950546874</v>
       </c>
       <c r="L47" t="n">
-        <v>547.4687603759766</v>
+        <v>525.7867218017578</v>
       </c>
       <c r="M47" t="n">
-        <v>58.7141723059043</v>
+        <v>58.86113497029301</v>
       </c>
     </row>
     <row r="48">
@@ -2579,10 +2579,10 @@
         <v>45536</v>
       </c>
       <c r="B48" t="n">
-        <v>78387.93984375001</v>
+        <v>80942.83984375</v>
       </c>
       <c r="C48" t="n">
-        <v>412.0324096679688</v>
+        <v>402.5562255859375</v>
       </c>
       <c r="D48" t="n">
         <v>21</v>
@@ -2601,22 +2601,22 @@
         <v>7264</v>
       </c>
       <c r="H48" t="n">
-        <v>10.79129127804928</v>
+        <v>11.14301209302726</v>
       </c>
       <c r="I48" t="n">
-        <v>0.05672252335737455</v>
+        <v>0.05541798259718303</v>
       </c>
       <c r="J48" t="n">
-        <v>24.24377304937727</v>
+        <v>23.68619929821527</v>
       </c>
       <c r="K48" t="n">
-        <v>32687.77091484375</v>
+        <v>33753.16421484375</v>
       </c>
       <c r="L48" t="n">
-        <v>535.6421325683594</v>
+        <v>523.3230932617188</v>
       </c>
       <c r="M48" t="n">
-        <v>56.51406365969495</v>
+        <v>58.30537588045566</v>
       </c>
     </row>
     <row r="49">
@@ -2624,10 +2624,10 @@
         <v>45566</v>
       </c>
       <c r="B49" t="n">
-        <v>81720.43046875</v>
+        <v>81498.26406250001</v>
       </c>
       <c r="C49" t="n">
-        <v>416.2019287109375</v>
+        <v>412.4116455078125</v>
       </c>
       <c r="D49" t="n">
         <v>22</v>
@@ -2646,22 +2646,22 @@
         <v>7264</v>
       </c>
       <c r="H49" t="n">
-        <v>11.2500592605658</v>
+        <v>11.2194746782076</v>
       </c>
       <c r="I49" t="n">
-        <v>0.05729652102298149</v>
+        <v>0.05677473093444556</v>
       </c>
       <c r="J49" t="n">
-        <v>23.37596423110553</v>
+        <v>23.16308313068289</v>
       </c>
       <c r="K49" t="n">
-        <v>34077.41950546874</v>
+        <v>33984.7761140625</v>
       </c>
       <c r="L49" t="n">
-        <v>541.0625073242188</v>
+        <v>536.1351391601563</v>
       </c>
       <c r="M49" t="n">
-        <v>58.88711955875887</v>
+        <v>58.7211486481299</v>
       </c>
     </row>
     <row r="50">
@@ -2669,10 +2669,10 @@
         <v>45597</v>
       </c>
       <c r="B50" t="n">
-        <v>78795.25078125</v>
+        <v>81609.34140624999</v>
       </c>
       <c r="C50" t="n">
-        <v>390.4262390136719</v>
+        <v>380.9500427246094</v>
       </c>
       <c r="D50" t="n">
         <v>21</v>
@@ -2691,22 +2691,22 @@
         <v>7264</v>
       </c>
       <c r="H50" t="n">
-        <v>10.84736381900468</v>
+        <v>11.23476616275468</v>
       </c>
       <c r="I50" t="n">
-        <v>0.05374810559108919</v>
+        <v>0.05244356315041428</v>
       </c>
       <c r="J50" t="n">
-        <v>22.97247718643533</v>
+        <v>22.41490271701795</v>
       </c>
       <c r="K50" t="n">
-        <v>32857.61957578125</v>
+        <v>34031.09536640625</v>
       </c>
       <c r="L50" t="n">
-        <v>507.5541107177735</v>
+        <v>495.2350555419922</v>
       </c>
       <c r="M50" t="n">
-        <v>56.7552029360951</v>
+        <v>58.73036682345412</v>
       </c>
     </row>
     <row r="51">
@@ -2714,10 +2714,10 @@
         <v>45627</v>
       </c>
       <c r="B51" t="n">
-        <v>80350.390625</v>
+        <v>81757.471875</v>
       </c>
       <c r="C51" t="n">
-        <v>415.8230560302734</v>
+        <v>378.2965026855469</v>
       </c>
       <c r="D51" t="n">
         <v>21</v>
@@ -2736,22 +2736,22 @@
         <v>7264</v>
       </c>
       <c r="H51" t="n">
-        <v>11.06145245388216</v>
+        <v>11.25515857310022</v>
       </c>
       <c r="I51" t="n">
-        <v>0.05724436344029095</v>
+        <v>0.05207826303490459</v>
       </c>
       <c r="J51" t="n">
-        <v>24.46681271315571</v>
+        <v>22.25876979889069</v>
       </c>
       <c r="K51" t="n">
-        <v>33506.112890625</v>
+        <v>34092.865771875</v>
       </c>
       <c r="L51" t="n">
-        <v>540.5699728393555</v>
+        <v>491.785453491211</v>
       </c>
       <c r="M51" t="n">
-        <v>57.91447133987776</v>
+        <v>58.82957233230249</v>
       </c>
     </row>
     <row r="52">
@@ -2759,10 +2759,10 @@
         <v>45292</v>
       </c>
       <c r="B52" t="n">
-        <v>744945.875</v>
+        <v>778807.3125</v>
       </c>
       <c r="C52" t="n">
-        <v>5131.42919921875</v>
+        <v>5446.513671875</v>
       </c>
       <c r="D52" t="n">
         <v>22</v>
@@ -2781,22 +2781,22 @@
         <v>74215</v>
       </c>
       <c r="H52" t="n">
-        <v>10.03767264030183</v>
+        <v>10.49393400929731</v>
       </c>
       <c r="I52" t="n">
-        <v>0.06914275010737385</v>
+        <v>0.07338831330425116</v>
       </c>
       <c r="J52" t="n">
-        <v>28.20901556487093</v>
+        <v>29.94113003987187</v>
       </c>
       <c r="K52" t="n">
-        <v>310642.429875</v>
+        <v>324762.6493125</v>
       </c>
       <c r="L52" t="n">
-        <v>6670.857958984375</v>
+        <v>7080.4677734375</v>
       </c>
       <c r="M52" t="n">
-        <v>5.170932128116644</v>
+        <v>5.407709987020183</v>
       </c>
     </row>
     <row r="53">
@@ -2804,10 +2804,10 @@
         <v>45323</v>
       </c>
       <c r="B53" t="n">
-        <v>717857.2375</v>
+        <v>771067.3</v>
       </c>
       <c r="C53" t="n">
-        <v>5342.98583984375</v>
+        <v>5018.89619140625</v>
       </c>
       <c r="D53" t="n">
         <v>20</v>
@@ -2826,22 +2826,22 @@
         <v>74215</v>
       </c>
       <c r="H53" t="n">
-        <v>9.672670450717511</v>
+        <v>10.3896422556087</v>
       </c>
       <c r="I53" t="n">
-        <v>0.07199334150567607</v>
+        <v>0.067626439283248</v>
       </c>
       <c r="J53" t="n">
-        <v>32.30920691962048</v>
+        <v>30.349426410043</v>
       </c>
       <c r="K53" t="n">
-        <v>299346.4680375</v>
+        <v>321535.0641</v>
       </c>
       <c r="L53" t="n">
-        <v>6945.881591796875</v>
+        <v>6524.565048828125</v>
       </c>
       <c r="M53" t="n">
-        <v>4.991335100101785</v>
+        <v>5.346054329723612</v>
       </c>
     </row>
     <row r="54">
@@ -2849,10 +2849,10 @@
         <v>45352</v>
       </c>
       <c r="B54" t="n">
-        <v>703344.9875</v>
+        <v>753169.3375</v>
       </c>
       <c r="C54" t="n">
-        <v>5374.49677734375</v>
+        <v>4915.366259765625</v>
       </c>
       <c r="D54" t="n">
         <v>20</v>
@@ -2871,22 +2871,22 @@
         <v>74215</v>
       </c>
       <c r="H54" t="n">
-        <v>9.477127096948056</v>
+        <v>10.14847857575962</v>
       </c>
       <c r="I54" t="n">
-        <v>0.07241793137969077</v>
+        <v>0.06623143919376979</v>
       </c>
       <c r="J54" t="n">
-        <v>32.4997545703978</v>
+        <v>29.72337758939913</v>
       </c>
       <c r="K54" t="n">
-        <v>293294.8597875</v>
+        <v>314071.6137375</v>
       </c>
       <c r="L54" t="n">
-        <v>6986.845810546875</v>
+        <v>6389.976137695313</v>
       </c>
       <c r="M54" t="n">
-        <v>4.893385743665998</v>
+        <v>5.222236806483691</v>
       </c>
     </row>
     <row r="55">
@@ -2894,10 +2894,10 @@
         <v>45383</v>
       </c>
       <c r="B55" t="n">
-        <v>694154.33125</v>
+        <v>743978.68125</v>
       </c>
       <c r="C55" t="n">
-        <v>5176.43896484375</v>
+        <v>5077.4142578125</v>
       </c>
       <c r="D55" t="n">
         <v>21</v>
@@ -2916,22 +2916,22 @@
         <v>74215</v>
       </c>
       <c r="H55" t="n">
-        <v>9.353288839857173</v>
+        <v>10.02464031866873</v>
       </c>
       <c r="I55" t="n">
-        <v>0.06974922811889443</v>
+        <v>0.0684149330703025</v>
       </c>
       <c r="J55" t="n">
-        <v>29.8115167802011</v>
+        <v>29.24122574897947</v>
       </c>
       <c r="K55" t="n">
-        <v>289462.35613125</v>
+        <v>310239.11008125</v>
       </c>
       <c r="L55" t="n">
-        <v>6729.370654296875</v>
+        <v>6600.63853515625</v>
       </c>
       <c r="M55" t="n">
-        <v>4.826735516096776</v>
+        <v>5.163215340802717</v>
       </c>
     </row>
     <row r="56">
@@ -2939,10 +2939,10 @@
         <v>45413</v>
       </c>
       <c r="B56" t="n">
-        <v>679158.8</v>
+        <v>719308.3375</v>
       </c>
       <c r="C56" t="n">
-        <v>4847.8498046875</v>
+        <v>5068.408935546875</v>
       </c>
       <c r="D56" t="n">
         <v>21</v>
@@ -2961,22 +2961,22 @@
         <v>74215</v>
       </c>
       <c r="H56" t="n">
-        <v>9.151233578117631</v>
+        <v>9.692223101798827</v>
       </c>
       <c r="I56" t="n">
-        <v>0.06532169783315368</v>
+        <v>0.0682935920709678</v>
       </c>
       <c r="J56" t="n">
-        <v>27.91914611219576</v>
+        <v>29.18936339386313</v>
       </c>
       <c r="K56" t="n">
-        <v>283209.2196</v>
+        <v>299951.5767375</v>
       </c>
       <c r="L56" t="n">
-        <v>6302.20474609375</v>
+        <v>6588.931616210938</v>
       </c>
       <c r="M56" t="n">
-        <v>4.717873417237</v>
+        <v>4.995379090599961</v>
       </c>
     </row>
     <row r="57">
@@ -2984,10 +2984,10 @@
         <v>45444</v>
       </c>
       <c r="B57" t="n">
-        <v>669484.175</v>
+        <v>690767.99375</v>
       </c>
       <c r="C57" t="n">
-        <v>5257.4640625</v>
+        <v>4906.366796875</v>
       </c>
       <c r="D57" t="n">
         <v>19</v>
@@ -3006,22 +3006,22 @@
         <v>74215</v>
       </c>
       <c r="H57" t="n">
-        <v>9.020874149430709</v>
+        <v>9.3076600922994</v>
       </c>
       <c r="I57" t="n">
-        <v>0.07084098986054033</v>
+        <v>0.06611017714579262</v>
       </c>
       <c r="J57" t="n">
-        <v>33.46531998546706</v>
+        <v>31.23048162984812</v>
       </c>
       <c r="K57" t="n">
-        <v>279174.900975</v>
+        <v>288050.25339375</v>
       </c>
       <c r="L57" t="n">
-        <v>6834.70328125</v>
+        <v>6378.2768359375</v>
       </c>
       <c r="M57" t="n">
-        <v>4.660807814554357</v>
+        <v>4.798002493974968</v>
       </c>
     </row>
     <row r="58">
@@ -3029,10 +3029,10 @@
         <v>45474</v>
       </c>
       <c r="B58" t="n">
-        <v>660292.875</v>
+        <v>670935.275</v>
       </c>
       <c r="C58" t="n">
-        <v>4937.87470703125</v>
+        <v>5050.406787109375</v>
       </c>
       <c r="D58" t="n">
         <v>23</v>
@@ -3051,22 +3051,22 @@
         <v>74215</v>
       </c>
       <c r="H58" t="n">
-        <v>8.897027218217341</v>
+        <v>9.040426800512027</v>
       </c>
       <c r="I58" t="n">
-        <v>0.06653472622827258</v>
+        <v>0.06805102455176683</v>
       </c>
       <c r="J58" t="n">
-        <v>25.96477121103321</v>
+        <v>26.55649738605535</v>
       </c>
       <c r="K58" t="n">
-        <v>275342.128875</v>
+        <v>279780.009675</v>
       </c>
       <c r="L58" t="n">
-        <v>6419.237119140626</v>
+        <v>6565.528823242187</v>
       </c>
       <c r="M58" t="n">
-        <v>4.591578593592993</v>
+        <v>4.66628219344567</v>
       </c>
     </row>
     <row r="59">
@@ -3074,10 +3074,10 @@
         <v>45505</v>
       </c>
       <c r="B59" t="n">
-        <v>650618.26875</v>
+        <v>680609.9</v>
       </c>
       <c r="C59" t="n">
-        <v>4937.87470703125</v>
+        <v>4748.82099609375</v>
       </c>
       <c r="D59" t="n">
         <v>21</v>
@@ -3096,22 +3096,22 @@
         <v>74215</v>
       </c>
       <c r="H59" t="n">
-        <v>8.766668042174762</v>
+        <v>9.170786229198949</v>
       </c>
       <c r="I59" t="n">
-        <v>0.06653472622827258</v>
+        <v>0.06398734751861147</v>
       </c>
       <c r="J59" t="n">
-        <v>28.43760656446494</v>
+        <v>27.34883145975496</v>
       </c>
       <c r="K59" t="n">
-        <v>271307.81806875</v>
+        <v>283814.3283</v>
       </c>
       <c r="L59" t="n">
-        <v>6419.237119140626</v>
+        <v>6173.467294921876</v>
       </c>
       <c r="M59" t="n">
-        <v>4.52583553093953</v>
+        <v>4.725636355285673</v>
       </c>
     </row>
     <row r="60">
@@ -3119,10 +3119,10 @@
         <v>45536</v>
       </c>
       <c r="B60" t="n">
-        <v>642394.93125</v>
+        <v>695121.66875</v>
       </c>
       <c r="C60" t="n">
-        <v>5270.9669921875</v>
+        <v>5027.899609375</v>
       </c>
       <c r="D60" t="n">
         <v>21</v>
@@ -3141,22 +3141,22 @@
         <v>74215</v>
       </c>
       <c r="H60" t="n">
-        <v>8.6558637910126</v>
+        <v>9.366323098430236</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0710229332639965</v>
+        <v>0.0677477546233915</v>
       </c>
       <c r="J60" t="n">
-        <v>30.35591108147586</v>
+        <v>28.95606701673411</v>
       </c>
       <c r="K60" t="n">
-        <v>267878.68633125</v>
+        <v>289865.73586875</v>
       </c>
       <c r="L60" t="n">
-        <v>6852.257089843751</v>
+        <v>6536.269492187501</v>
       </c>
       <c r="M60" t="n">
-        <v>4.4770109427853</v>
+        <v>4.830162212308473</v>
       </c>
     </row>
     <row r="61">
@@ -3164,10 +3164,10 @@
         <v>45566</v>
       </c>
       <c r="B61" t="n">
-        <v>624496.825</v>
+        <v>677707.5125</v>
       </c>
       <c r="C61" t="n">
-        <v>4897.364453125</v>
+        <v>4591.279296875</v>
       </c>
       <c r="D61" t="n">
         <v>22</v>
@@ -3186,22 +3186,22 @@
         <v>74215</v>
       </c>
       <c r="H61" t="n">
-        <v>8.414698174223538</v>
+        <v>9.131678400592872</v>
       </c>
       <c r="I61" t="n">
-        <v>0.06598887628006468</v>
+        <v>0.06186457315738059</v>
       </c>
       <c r="J61" t="n">
-        <v>26.92229098787561</v>
+        <v>25.23964847219075</v>
       </c>
       <c r="K61" t="n">
-        <v>260415.176025</v>
+        <v>282604.0327125</v>
       </c>
       <c r="L61" t="n">
-        <v>6366.573789062501</v>
+        <v>5968.6630859375</v>
       </c>
       <c r="M61" t="n">
-        <v>4.347471014294428</v>
+        <v>4.702575912238735</v>
       </c>
     </row>
     <row r="62">
@@ -3209,10 +3209,10 @@
         <v>45597</v>
       </c>
       <c r="B62" t="n">
-        <v>648199.6875</v>
+        <v>658358.2625</v>
       </c>
       <c r="C62" t="n">
-        <v>5072.9111328125</v>
+        <v>4550.76728515625</v>
       </c>
       <c r="D62" t="n">
         <v>21</v>
@@ -3231,22 +3231,22 @@
         <v>74215</v>
       </c>
       <c r="H62" t="n">
-        <v>8.734079195580408</v>
+        <v>8.870959543219024</v>
       </c>
       <c r="I62" t="n">
-        <v>0.06835425632031934</v>
+        <v>0.06131869952376541</v>
       </c>
       <c r="J62" t="n">
-        <v>29.21529189997389</v>
+        <v>26.20822465127256</v>
       </c>
       <c r="K62" t="n">
-        <v>270299.2696875</v>
+        <v>274535.3954625</v>
       </c>
       <c r="L62" t="n">
-        <v>6594.78447265625</v>
+        <v>5915.997470703125</v>
       </c>
       <c r="M62" t="n">
-        <v>4.512260959869818</v>
+        <v>4.570231294102298</v>
       </c>
     </row>
     <row r="63">
@@ -3254,10 +3254,10 @@
         <v>45627</v>
       </c>
       <c r="B63" t="n">
-        <v>652553.50625</v>
+        <v>683995.8</v>
       </c>
       <c r="C63" t="n">
-        <v>4946.877197265625</v>
+        <v>4982.885888671875</v>
       </c>
       <c r="D63" t="n">
         <v>21</v>
@@ -3276,22 +3276,22 @@
         <v>74215</v>
       </c>
       <c r="H63" t="n">
-        <v>8.792744138651216</v>
+        <v>9.216409081722025</v>
       </c>
       <c r="I63" t="n">
-        <v>0.06665602906778448</v>
+        <v>0.06714122331970458</v>
       </c>
       <c r="J63" t="n">
-        <v>28.48945260969186</v>
+        <v>28.69682947926979</v>
       </c>
       <c r="K63" t="n">
-        <v>272114.81210625</v>
+        <v>285226.2486</v>
       </c>
       <c r="L63" t="n">
-        <v>6430.940356445312</v>
+        <v>6477.751655273438</v>
       </c>
       <c r="M63" t="n">
-        <v>4.539177008286369</v>
+        <v>4.753603598249915</v>
       </c>
     </row>
     <row r="64">
@@ -3299,10 +3299,10 @@
         <v>45292</v>
       </c>
       <c r="B64" t="n">
-        <v>349498.728125</v>
+        <v>354377.71875</v>
       </c>
       <c r="C64" t="n">
-        <v>1740.6015625</v>
+        <v>1801.00009765625</v>
       </c>
       <c r="D64" t="n">
         <v>22</v>
@@ -3321,22 +3321,22 @@
         <v>67896</v>
       </c>
       <c r="H64" t="n">
-        <v>5.14755991700542</v>
+        <v>5.219419682308236</v>
       </c>
       <c r="I64" t="n">
-        <v>0.02563629024537528</v>
+        <v>0.02652586452303891</v>
       </c>
       <c r="J64" t="n">
-        <v>10.45915167438814</v>
+        <v>10.82208220008683</v>
       </c>
       <c r="K64" t="n">
-        <v>145740.969628125</v>
+        <v>147775.50871875</v>
       </c>
       <c r="L64" t="n">
-        <v>2262.78203125</v>
+        <v>2341.300126953125</v>
       </c>
       <c r="M64" t="n">
-        <v>2.881696956454819</v>
+        <v>2.922839092342501</v>
       </c>
     </row>
     <row r="65">
@@ -3344,10 +3344,10 @@
         <v>45323</v>
       </c>
       <c r="B65" t="n">
-        <v>354377.71875</v>
+        <v>358743.290625</v>
       </c>
       <c r="C65" t="n">
-        <v>1654.577490234375</v>
+        <v>1636.275769042969</v>
       </c>
       <c r="D65" t="n">
         <v>20</v>
@@ -3366,22 +3366,22 @@
         <v>67896</v>
       </c>
       <c r="H65" t="n">
-        <v>5.219419682308236</v>
+        <v>5.283717606707317</v>
       </c>
       <c r="I65" t="n">
-        <v>0.02436929259800835</v>
+        <v>0.02409973737838707</v>
       </c>
       <c r="J65" t="n">
-        <v>10.93646301959399</v>
+        <v>10.815491896642</v>
       </c>
       <c r="K65" t="n">
-        <v>147775.50871875</v>
+        <v>149595.952190625</v>
       </c>
       <c r="L65" t="n">
-        <v>2150.950737304688</v>
+        <v>2127.158499755859</v>
       </c>
       <c r="M65" t="n">
-        <v>2.919132907528515</v>
+        <v>2.954114482898876</v>
       </c>
     </row>
     <row r="66">
@@ -3389,10 +3389,10 @@
         <v>45352</v>
       </c>
       <c r="B66" t="n">
-        <v>331266</v>
+        <v>348471.478125</v>
       </c>
       <c r="C66" t="n">
-        <v>1636.275769042969</v>
+        <v>1755.243884277344</v>
       </c>
       <c r="D66" t="n">
         <v>20</v>
@@ -3411,22 +3411,22 @@
         <v>67896</v>
       </c>
       <c r="H66" t="n">
-        <v>4.879020855425946</v>
+        <v>5.132430159729587</v>
       </c>
       <c r="I66" t="n">
-        <v>0.02409973737838707</v>
+        <v>0.02585194833682903</v>
       </c>
       <c r="J66" t="n">
-        <v>10.815491896642</v>
+        <v>11.60184998530864</v>
       </c>
       <c r="K66" t="n">
-        <v>138137.922</v>
+        <v>145312.606378125</v>
       </c>
       <c r="L66" t="n">
-        <v>2127.158499755859</v>
+        <v>2281.817049560547</v>
       </c>
       <c r="M66" t="n">
-        <v>2.731021687229191</v>
+        <v>2.873727159025864</v>
       </c>
     </row>
     <row r="67">
@@ -3434,10 +3434,10 @@
         <v>45383</v>
       </c>
       <c r="B67" t="n">
-        <v>336401.90625</v>
+        <v>341537.78125</v>
       </c>
       <c r="C67" t="n">
-        <v>1605.160632324219</v>
+        <v>1520.967614746094</v>
       </c>
       <c r="D67" t="n">
         <v>21</v>
@@ -3456,22 +3456,22 @@
         <v>67896</v>
       </c>
       <c r="H67" t="n">
-        <v>4.95466457891481</v>
+        <v>5.030307842140921</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0236414609450368</v>
+        <v>0.02240143181845902</v>
       </c>
       <c r="J67" t="n">
-        <v>10.10459654793675</v>
+        <v>9.574595713348337</v>
       </c>
       <c r="K67" t="n">
-        <v>140279.59490625</v>
+        <v>142421.25478125</v>
       </c>
       <c r="L67" t="n">
-        <v>2086.708822021485</v>
+        <v>1977.257899169922</v>
       </c>
       <c r="M67" t="n">
-        <v>2.771933410848071</v>
+        <v>2.811501396704026</v>
       </c>
     </row>
     <row r="68">
@@ -3479,10 +3479,10 @@
         <v>45413</v>
       </c>
       <c r="B68" t="n">
-        <v>331266</v>
+        <v>335631.5625</v>
       </c>
       <c r="C68" t="n">
-        <v>1499.004223632812</v>
+        <v>1462.398510742187</v>
       </c>
       <c r="D68" t="n">
         <v>21</v>
@@ -3501,22 +3501,22 @@
         <v>67896</v>
       </c>
       <c r="H68" t="n">
-        <v>4.879020855425946</v>
+        <v>4.9433186417462</v>
       </c>
       <c r="I68" t="n">
-        <v>0.02207794602970444</v>
+        <v>0.0215388021494961</v>
       </c>
       <c r="J68" t="n">
-        <v>9.436334656133836</v>
+        <v>9.205899176555826</v>
       </c>
       <c r="K68" t="n">
-        <v>138137.922</v>
+        <v>139958.3615625</v>
       </c>
       <c r="L68" t="n">
-        <v>1948.705490722656</v>
+        <v>1901.118063964844</v>
       </c>
       <c r="M68" t="n">
-        <v>2.727547130082933</v>
+        <v>2.762065326726829</v>
       </c>
     </row>
     <row r="69">
@@ -3524,10 +3524,10 @@
         <v>45444</v>
       </c>
       <c r="B69" t="n">
-        <v>320223.853125</v>
+        <v>338199.571875</v>
       </c>
       <c r="C69" t="n">
-        <v>1647.257446289062</v>
+        <v>1691.183117675781</v>
       </c>
       <c r="D69" t="n">
         <v>19</v>
@@ -3546,22 +3546,22 @@
         <v>67896</v>
       </c>
       <c r="H69" t="n">
-        <v>4.71638760935843</v>
+        <v>4.981141331963592</v>
       </c>
       <c r="I69" t="n">
-        <v>0.02426148000307916</v>
+        <v>0.02490843521968571</v>
       </c>
       <c r="J69" t="n">
-        <v>11.46113561121069</v>
+        <v>11.76675758773343</v>
       </c>
       <c r="K69" t="n">
-        <v>133533.346753125</v>
+        <v>141029.221471875</v>
       </c>
       <c r="L69" t="n">
-        <v>2141.434680175782</v>
+        <v>2198.538052978516</v>
       </c>
       <c r="M69" t="n">
-        <v>2.64164658220169</v>
+        <v>2.788706327205246</v>
       </c>
     </row>
     <row r="70">
@@ -3569,10 +3569,10 @@
         <v>45474</v>
       </c>
       <c r="B70" t="n">
-        <v>341794.70625</v>
+        <v>344105.90625</v>
       </c>
       <c r="C70" t="n">
-        <v>1612.481286621094</v>
+        <v>1513.645983886719</v>
       </c>
       <c r="D70" t="n">
         <v>23</v>
@@ -3591,22 +3591,22 @@
         <v>67896</v>
       </c>
       <c r="H70" t="n">
-        <v>5.034091938405797</v>
+        <v>5.068132235330506</v>
       </c>
       <c r="I70" t="n">
-        <v>0.02374928252947292</v>
+        <v>0.02229359585081181</v>
       </c>
       <c r="J70" t="n">
-        <v>9.268012694428458</v>
+        <v>8.699939844219243</v>
       </c>
       <c r="K70" t="n">
-        <v>142528.39250625</v>
+        <v>143492.16290625</v>
       </c>
       <c r="L70" t="n">
-        <v>2096.225672607422</v>
+        <v>1967.739779052735</v>
       </c>
       <c r="M70" t="n">
-        <v>2.815903768396499</v>
+        <v>2.832167118433307</v>
       </c>
     </row>
     <row r="71">
@@ -3614,10 +3614,10 @@
         <v>45505</v>
       </c>
       <c r="B71" t="n">
-        <v>338199.571875</v>
+        <v>339997.01875</v>
       </c>
       <c r="C71" t="n">
-        <v>1458.737939453125</v>
+        <v>1471.549084472656</v>
       </c>
       <c r="D71" t="n">
         <v>21</v>
@@ -3636,22 +3636,22 @@
         <v>67896</v>
       </c>
       <c r="H71" t="n">
-        <v>4.981141331963592</v>
+        <v>5.007614863173088</v>
       </c>
       <c r="I71" t="n">
-        <v>0.02148488776147527</v>
+        <v>0.02167357553423848</v>
       </c>
       <c r="J71" t="n">
-        <v>9.182855628598023</v>
+        <v>9.263502667363255</v>
       </c>
       <c r="K71" t="n">
-        <v>141029.221471875</v>
+        <v>141778.75681875</v>
       </c>
       <c r="L71" t="n">
-        <v>1896.359321289062</v>
+        <v>1913.013809814453</v>
       </c>
       <c r="M71" t="n">
-        <v>2.782822776811072</v>
+        <v>2.797740823765864</v>
       </c>
     </row>
     <row r="72">
@@ -3659,10 +3659,10 @@
         <v>45536</v>
       </c>
       <c r="B72" t="n">
-        <v>325359.759375</v>
+        <v>331522.89375</v>
       </c>
       <c r="C72" t="n">
-        <v>1513.645983886719</v>
+        <v>1473.380224609375</v>
       </c>
       <c r="D72" t="n">
         <v>21</v>
@@ -3681,22 +3681,22 @@
         <v>67896</v>
       </c>
       <c r="H72" t="n">
-        <v>4.792031332847296</v>
+        <v>4.882804491428066</v>
       </c>
       <c r="I72" t="n">
-        <v>0.02229359585081181</v>
+        <v>0.0217005453135586</v>
       </c>
       <c r="J72" t="n">
-        <v>9.528505543668693</v>
+        <v>9.275029820429229</v>
       </c>
       <c r="K72" t="n">
-        <v>135675.019659375</v>
+        <v>138245.04669375</v>
       </c>
       <c r="L72" t="n">
-        <v>1967.739779052735</v>
+        <v>1915.394291992188</v>
       </c>
       <c r="M72" t="n">
-        <v>2.67996396378264</v>
+        <v>2.728984310705439</v>
       </c>
     </row>
     <row r="73">
@@ -3704,10 +3704,10 @@
         <v>45566</v>
       </c>
       <c r="B73" t="n">
-        <v>333063.665625</v>
+        <v>343335.46875</v>
       </c>
       <c r="C73" t="n">
-        <v>1586.857287597656</v>
+        <v>1409.319458007812</v>
       </c>
       <c r="D73" t="n">
         <v>22</v>
@@ -3726,22 +3726,22 @@
         <v>67896</v>
       </c>
       <c r="H73" t="n">
-        <v>4.905497608474726</v>
+        <v>5.05678491737363</v>
       </c>
       <c r="I73" t="n">
-        <v>0.02337188181332709</v>
+        <v>0.02075703219641529</v>
       </c>
       <c r="J73" t="n">
-        <v>9.535313201002626</v>
+        <v>8.468500940444374</v>
       </c>
       <c r="K73" t="n">
-        <v>138887.548565625</v>
+        <v>143170.89046875</v>
       </c>
       <c r="L73" t="n">
-        <v>2062.914473876953</v>
+        <v>1832.115295410156</v>
       </c>
       <c r="M73" t="n">
-        <v>2.744366381243025</v>
+        <v>2.823271138079376</v>
       </c>
     </row>
     <row r="74">
@@ -3749,10 +3749,10 @@
         <v>45597</v>
       </c>
       <c r="B74" t="n">
-        <v>325616.653125</v>
+        <v>340767.446875</v>
       </c>
       <c r="C74" t="n">
-        <v>1398.337744140625</v>
+        <v>1517.306591796875</v>
       </c>
       <c r="D74" t="n">
         <v>21</v>
@@ -3771,22 +3771,22 @@
         <v>67896</v>
       </c>
       <c r="H74" t="n">
-        <v>4.795814968849417</v>
+        <v>5.018962043051137</v>
       </c>
       <c r="I74" t="n">
-        <v>0.02059528903235279</v>
+        <v>0.02234751077820306</v>
       </c>
       <c r="J74" t="n">
-        <v>8.802632246115943</v>
+        <v>9.551549322158799</v>
       </c>
       <c r="K74" t="n">
-        <v>135782.144353125</v>
+        <v>142100.025346875</v>
       </c>
       <c r="L74" t="n">
-        <v>1817.839067382813</v>
+        <v>1972.498569335937</v>
       </c>
       <c r="M74" t="n">
-        <v>2.679131096242006</v>
+        <v>2.805154254694941</v>
       </c>
     </row>
     <row r="75">
@@ -3794,10 +3794,10 @@
         <v>45627</v>
       </c>
       <c r="B75" t="n">
-        <v>325359.759375</v>
+        <v>336401.90625</v>
       </c>
       <c r="C75" t="n">
-        <v>1508.154760742188</v>
+        <v>1403.828967285156</v>
       </c>
       <c r="D75" t="n">
         <v>21</v>
@@ -3816,22 +3816,22 @@
         <v>67896</v>
       </c>
       <c r="H75" t="n">
-        <v>4.792031332847296</v>
+        <v>4.95466457891481</v>
       </c>
       <c r="I75" t="n">
-        <v>0.02221271887507641</v>
+        <v>0.0206761660080882</v>
       </c>
       <c r="J75" t="n">
-        <v>9.493937916408962</v>
+        <v>8.837199873375674</v>
       </c>
       <c r="K75" t="n">
-        <v>135675.019659375</v>
+        <v>140279.59490625</v>
       </c>
       <c r="L75" t="n">
-        <v>1960.601188964844</v>
+        <v>1824.977657470703</v>
       </c>
       <c r="M75" t="n">
-        <v>2.67982497235101</v>
+        <v>2.766837392052337</v>
       </c>
     </row>
     <row r="76">
@@ -3839,10 +3839,10 @@
         <v>45352</v>
       </c>
       <c r="B76" t="n">
-        <v>725111.6</v>
+        <v>693145.63125</v>
       </c>
       <c r="C76" t="n">
-        <v>6925.144140625</v>
+        <v>7355.278857421875</v>
       </c>
       <c r="D76" t="n">
         <v>20</v>
@@ -3861,22 +3861,22 @@
         <v>105307</v>
       </c>
       <c r="H76" t="n">
-        <v>6.885692309153238</v>
+        <v>6.58214203471754</v>
       </c>
       <c r="I76" t="n">
-        <v>0.06576147967965092</v>
+        <v>0.06984605826224159</v>
       </c>
       <c r="J76" t="n">
-        <v>29.51246892940431</v>
+        <v>31.34554809817671</v>
       </c>
       <c r="K76" t="n">
-        <v>302371.5372</v>
+        <v>289041.72823125</v>
       </c>
       <c r="L76" t="n">
-        <v>9002.687382812499</v>
+        <v>9561.862514648437</v>
       </c>
       <c r="M76" t="n">
-        <v>2.520183359066451</v>
+        <v>2.416821114090512</v>
       </c>
     </row>
     <row r="77">
@@ -3884,10 +3884,10 @@
         <v>45383</v>
       </c>
       <c r="B77" t="n">
-        <v>746982.71875</v>
+        <v>760441.275</v>
       </c>
       <c r="C77" t="n">
-        <v>7478.173876953125</v>
+        <v>6925.144140625</v>
       </c>
       <c r="D77" t="n">
         <v>21</v>
@@ -3906,22 +3906,22 @@
         <v>105307</v>
       </c>
       <c r="H77" t="n">
-        <v>7.093381434757424</v>
+        <v>7.221184489160265</v>
       </c>
       <c r="I77" t="n">
-        <v>0.07101307488536493</v>
+        <v>0.06576147967965092</v>
       </c>
       <c r="J77" t="n">
-        <v>30.35169751197944</v>
+        <v>28.10711326609935</v>
       </c>
       <c r="K77" t="n">
-        <v>311491.79371875</v>
+        <v>317104.011675</v>
       </c>
       <c r="L77" t="n">
-        <v>9721.626040039062</v>
+        <v>9002.687382812499</v>
       </c>
       <c r="M77" t="n">
-        <v>2.59981928905496</v>
+        <v>2.639424240547608</v>
       </c>
     </row>
     <row r="78">
@@ -3929,10 +3929,10 @@
         <v>45413</v>
       </c>
       <c r="B78" t="n">
-        <v>718382.06875</v>
+        <v>723429.25</v>
       </c>
       <c r="C78" t="n">
-        <v>7066.47265625</v>
+        <v>7478.173876953125</v>
       </c>
       <c r="D78" t="n">
         <v>21</v>
@@ -3951,22 +3951,22 @@
         <v>105307</v>
       </c>
       <c r="H78" t="n">
-        <v>6.821788378265452</v>
+        <v>6.869716638020265</v>
       </c>
       <c r="I78" t="n">
-        <v>0.06710354160929473</v>
+        <v>0.07101307488536493</v>
       </c>
       <c r="J78" t="n">
-        <v>28.68072393986116</v>
+        <v>30.35169751197944</v>
       </c>
       <c r="K78" t="n">
-        <v>299565.32266875</v>
+        <v>301669.99725</v>
       </c>
       <c r="L78" t="n">
-        <v>9186.414453125</v>
+        <v>9721.626040039062</v>
       </c>
       <c r="M78" t="n">
-        <v>2.498957616096652</v>
+        <v>2.5203241797541</v>
       </c>
     </row>
     <row r="79">
@@ -3974,10 +3974,10 @@
         <v>45444</v>
       </c>
       <c r="B79" t="n">
-        <v>744458.95</v>
+        <v>695669.38125</v>
       </c>
       <c r="C79" t="n">
-        <v>7189.36767578125</v>
+        <v>6986.593310546875</v>
       </c>
       <c r="D79" t="n">
         <v>19</v>
@@ -3996,22 +3996,22 @@
         <v>105307</v>
       </c>
       <c r="H79" t="n">
-        <v>7.06941561339702</v>
+        <v>6.606107678027102</v>
       </c>
       <c r="I79" t="n">
-        <v>0.06827055823241807</v>
+        <v>0.06634500375613088</v>
       </c>
       <c r="J79" t="n">
-        <v>32.25104676447991</v>
+        <v>31.34141384115041</v>
       </c>
       <c r="K79" t="n">
-        <v>310439.38215</v>
+        <v>290094.13198125</v>
       </c>
       <c r="L79" t="n">
-        <v>9346.177978515625</v>
+        <v>9082.571303710938</v>
       </c>
       <c r="M79" t="n">
-        <v>2.588262558294347</v>
+        <v>2.421459740443585</v>
       </c>
     </row>
     <row r="80">
@@ -4019,10 +4019,10 @@
         <v>45474</v>
       </c>
       <c r="B80" t="n">
-        <v>728475.85625</v>
+        <v>737729.375</v>
       </c>
       <c r="C80" t="n">
-        <v>7723.9640625</v>
+        <v>7256.96103515625</v>
       </c>
       <c r="D80" t="n">
         <v>23</v>
@@ -4041,22 +4041,22 @@
         <v>105307</v>
       </c>
       <c r="H80" t="n">
-        <v>6.91763943754926</v>
+        <v>7.005511267057271</v>
       </c>
       <c r="I80" t="n">
-        <v>0.07334710952263382</v>
+        <v>0.06891242780780242</v>
       </c>
       <c r="J80" t="n">
-        <v>28.62326225273515</v>
+        <v>26.89265475426436</v>
       </c>
       <c r="K80" t="n">
-        <v>303774.43205625</v>
+        <v>307633.149375</v>
       </c>
       <c r="L80" t="n">
-        <v>10041.15328125</v>
+        <v>9434.049345703124</v>
       </c>
       <c r="M80" t="n">
-        <v>2.539943108787819</v>
+        <v>2.566260836112377</v>
       </c>
     </row>
     <row r="81">
@@ -4064,10 +4064,10 @@
         <v>45505</v>
       </c>
       <c r="B81" t="n">
-        <v>630897.1875</v>
+        <v>713334.8875</v>
       </c>
       <c r="C81" t="n">
-        <v>7091.055322265625</v>
+        <v>7459.740869140625</v>
       </c>
       <c r="D81" t="n">
         <v>21</v>
@@ -4086,22 +4086,22 @@
         <v>105307</v>
       </c>
       <c r="H81" t="n">
-        <v>5.99102801808047</v>
+        <v>6.77386011851064</v>
       </c>
       <c r="I81" t="n">
-        <v>0.06733697970947444</v>
+        <v>0.07083803421558516</v>
       </c>
       <c r="J81" t="n">
-        <v>28.78049771554773</v>
+        <v>30.27688338134185</v>
       </c>
       <c r="K81" t="n">
-        <v>263084.1271875</v>
+        <v>297460.6480875</v>
       </c>
       <c r="L81" t="n">
-        <v>9218.371918945313</v>
+        <v>9697.663129882812</v>
       </c>
       <c r="M81" t="n">
-        <v>2.203946803238868</v>
+        <v>2.486060834245852</v>
       </c>
     </row>
     <row r="82">
@@ -4109,10 +4109,10 @@
         <v>45536</v>
       </c>
       <c r="B82" t="n">
-        <v>747823.5</v>
+        <v>715858.31875</v>
       </c>
       <c r="C82" t="n">
-        <v>6906.708642578125</v>
+        <v>7293.8296875</v>
       </c>
       <c r="D82" t="n">
         <v>21</v>
@@ -4131,22 +4131,22 @@
         <v>105307</v>
       </c>
       <c r="H82" t="n">
-        <v>7.101365531256231</v>
+        <v>6.797822734955891</v>
       </c>
       <c r="I82" t="n">
-        <v>0.06558641536249371</v>
+        <v>0.06926253418576163</v>
       </c>
       <c r="J82" t="n">
-        <v>28.03228902833645</v>
+        <v>29.60349893189347</v>
       </c>
       <c r="K82" t="n">
-        <v>311842.3995</v>
+        <v>298512.91891875</v>
       </c>
       <c r="L82" t="n">
-        <v>8978.721235351562</v>
+        <v>9481.97859375</v>
       </c>
       <c r="M82" t="n">
-        <v>2.596644121065478</v>
+        <v>2.492831949813308</v>
       </c>
     </row>
     <row r="83">
@@ -4154,10 +4154,10 @@
         <v>45566</v>
       </c>
       <c r="B83" t="n">
-        <v>701558.13125</v>
+        <v>712493.275</v>
       </c>
       <c r="C83" t="n">
-        <v>7066.47265625</v>
+        <v>7048.039501953125</v>
       </c>
       <c r="D83" t="n">
         <v>22</v>
@@ -4176,22 +4176,22 @@
         <v>105307</v>
       </c>
       <c r="H83" t="n">
-        <v>6.662027512416079</v>
+        <v>6.765868128424511</v>
       </c>
       <c r="I83" t="n">
-        <v>0.06710354160929473</v>
+        <v>0.06692849954849274</v>
       </c>
       <c r="J83" t="n">
-        <v>27.37705466986747</v>
+        <v>27.30564061401921</v>
       </c>
       <c r="K83" t="n">
-        <v>292549.74073125</v>
+        <v>297109.695675</v>
       </c>
       <c r="L83" t="n">
-        <v>9186.414453125</v>
+        <v>9162.451352539063</v>
       </c>
       <c r="M83" t="n">
-        <v>2.44217528969586</v>
+        <v>2.478888447874961</v>
       </c>
     </row>
     <row r="84">
@@ -4199,10 +4199,10 @@
         <v>45597</v>
       </c>
       <c r="B84" t="n">
-        <v>788200.90625</v>
+        <v>765488.4375</v>
       </c>
       <c r="C84" t="n">
-        <v>7066.47265625</v>
+        <v>7232.383837890625</v>
       </c>
       <c r="D84" t="n">
         <v>21</v>
@@ -4221,22 +4221,22 @@
         <v>105307</v>
       </c>
       <c r="H84" t="n">
-        <v>7.484791193842764</v>
+        <v>7.269112570864235</v>
       </c>
       <c r="I84" t="n">
-        <v>0.06710354160929473</v>
+        <v>0.06867904163911824</v>
       </c>
       <c r="J84" t="n">
-        <v>28.68072393986116</v>
+        <v>29.35410838930954</v>
       </c>
       <c r="K84" t="n">
-        <v>328679.77790625</v>
+        <v>319208.6784375</v>
       </c>
       <c r="L84" t="n">
-        <v>9186.414453125</v>
+        <v>9402.098989257813</v>
       </c>
       <c r="M84" t="n">
-        <v>2.734602572567088</v>
+        <v>2.659691610602626</v>
       </c>
     </row>
     <row r="85">
@@ -4244,10 +4244,10 @@
         <v>45627</v>
       </c>
       <c r="B85" t="n">
-        <v>718382.06875</v>
+        <v>782312.375</v>
       </c>
       <c r="C85" t="n">
-        <v>6820.68212890625</v>
+        <v>6863.698291015625</v>
       </c>
       <c r="D85" t="n">
         <v>21</v>
@@ -4266,22 +4266,22 @@
         <v>105307</v>
       </c>
       <c r="H85" t="n">
-        <v>6.821788378265452</v>
+        <v>7.428873436713609</v>
       </c>
       <c r="I85" t="n">
-        <v>0.06476950372630737</v>
+        <v>0.06517798713300754</v>
       </c>
       <c r="J85" t="n">
-        <v>27.68313283540198</v>
+        <v>27.85772272351542</v>
       </c>
       <c r="K85" t="n">
-        <v>299565.32266875</v>
+        <v>326224.260375</v>
       </c>
       <c r="L85" t="n">
-        <v>8866.886767578126</v>
+        <v>8922.807778320313</v>
       </c>
       <c r="M85" t="n">
-        <v>2.496371440709286</v>
+        <v>2.712594676491185</v>
       </c>
     </row>
   </sheetData>

--- a/store/output/clean_data_chronos.xlsx
+++ b/store/output/clean_data_chronos.xlsx
@@ -509,10 +509,10 @@
         <v>45352</v>
       </c>
       <c r="B2" t="n">
-        <v>245237.1234375</v>
+        <v>255263.734375</v>
       </c>
       <c r="C2" t="n">
-        <v>2445.666015625</v>
+        <v>2296.0771484375</v>
       </c>
       <c r="D2" t="n">
         <v>20</v>
@@ -531,22 +531,22 @@
         <v>34658.327</v>
       </c>
       <c r="H2" t="n">
-        <v>7.075850009652804</v>
+        <v>7.365148767134664</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0705650337832233</v>
+        <v>0.06624893199367356</v>
       </c>
       <c r="J2" t="n">
-        <v>31.66821028320265</v>
+        <v>29.73122801667301</v>
       </c>
       <c r="K2" t="n">
-        <v>102263.8804734375</v>
+        <v>106444.977234375</v>
       </c>
       <c r="L2" t="n">
-        <v>3179.3658203125</v>
+        <v>2984.90029296875</v>
       </c>
       <c r="M2" t="n">
-        <v>7.878935408954058</v>
+        <v>8.176824663058573</v>
       </c>
     </row>
     <row r="3">
@@ -554,10 +554,10 @@
         <v>45383</v>
       </c>
       <c r="B3" t="n">
-        <v>267797.2421875</v>
+        <v>291193.20625</v>
       </c>
       <c r="C3" t="n">
-        <v>2533.520263671875</v>
+        <v>2272.333520507812</v>
       </c>
       <c r="D3" t="n">
         <v>21</v>
@@ -576,22 +576,22 @@
         <v>34658.327</v>
       </c>
       <c r="H3" t="n">
-        <v>7.726779258199625</v>
+        <v>8.401825230917812</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07309990074454185</v>
+        <v>0.06556385484238211</v>
       </c>
       <c r="J3" t="n">
-        <v>31.24362772821301</v>
+        <v>28.02264643669758</v>
       </c>
       <c r="K3" t="n">
-        <v>111671.4499921875</v>
+        <v>121427.56700625</v>
       </c>
       <c r="L3" t="n">
-        <v>3293.576342773438</v>
+        <v>2954.033576660156</v>
       </c>
       <c r="M3" t="n">
-        <v>8.590422323099032</v>
+        <v>9.294048044812133</v>
       </c>
     </row>
     <row r="4">
@@ -599,10 +599,10 @@
         <v>45413</v>
       </c>
       <c r="B4" t="n">
-        <v>254846.140625</v>
+        <v>287015.303125</v>
       </c>
       <c r="C4" t="n">
-        <v>2367.310815429687</v>
+        <v>2319.822045898437</v>
       </c>
       <c r="D4" t="n">
         <v>21</v>
@@ -621,22 +621,22 @@
         <v>34658.327</v>
       </c>
       <c r="H4" t="n">
-        <v>7.353099895012244</v>
+        <v>8.281279795328839</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06830424375157196</v>
+        <v>0.06693404577487071</v>
       </c>
       <c r="J4" t="n">
-        <v>29.19391602854643</v>
+        <v>28.60827972723859</v>
       </c>
       <c r="K4" t="n">
-        <v>106270.840640625</v>
+        <v>119685.381403125</v>
       </c>
       <c r="L4" t="n">
-        <v>3077.504060058594</v>
+        <v>3015.768659667969</v>
       </c>
       <c r="M4" t="n">
-        <v>8.17073236319543</v>
+        <v>9.168481338822625</v>
       </c>
     </row>
     <row r="5">
@@ -644,10 +644,10 @@
         <v>45444</v>
       </c>
       <c r="B5" t="n">
-        <v>249832.7796875</v>
+        <v>316260.01875</v>
       </c>
       <c r="C5" t="n">
-        <v>2393.429907226563</v>
+        <v>2305.57548828125</v>
       </c>
       <c r="D5" t="n">
         <v>19</v>
@@ -666,22 +666,22 @@
         <v>34658.327</v>
       </c>
       <c r="H5" t="n">
-        <v>7.208448915826203</v>
+        <v>9.12508035226282</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06905786038739155</v>
+        <v>0.06652298849512413</v>
       </c>
       <c r="J5" t="n">
-        <v>32.62296870675236</v>
+        <v>31.42549392324221</v>
       </c>
       <c r="K5" t="n">
-        <v>104180.2691296875</v>
+        <v>131880.42781875</v>
       </c>
       <c r="L5" t="n">
-        <v>3111.458879394531</v>
+        <v>2997.248134765625</v>
       </c>
       <c r="M5" t="n">
-        <v>8.017057750134262</v>
+        <v>10.0783363022329</v>
       </c>
     </row>
     <row r="6">
@@ -689,10 +689,10 @@
         <v>45474</v>
       </c>
       <c r="B6" t="n">
-        <v>266543.9828125</v>
+        <v>294117.478125</v>
       </c>
       <c r="C6" t="n">
-        <v>2319.822045898437</v>
+        <v>2184.47998046875</v>
       </c>
       <c r="D6" t="n">
         <v>23</v>
@@ -711,22 +711,22 @@
         <v>34658.327</v>
       </c>
       <c r="H6" t="n">
-        <v>7.690618846446339</v>
+        <v>8.486199525008811</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06693404577487071</v>
+        <v>0.0630290083092802</v>
       </c>
       <c r="J6" t="n">
-        <v>26.12060322921784</v>
+        <v>24.59668616947519</v>
       </c>
       <c r="K6" t="n">
-        <v>111148.8408328125</v>
+        <v>122646.988378125</v>
       </c>
       <c r="L6" t="n">
-        <v>3015.768659667969</v>
+        <v>2839.823974609375</v>
       </c>
       <c r="M6" t="n">
-        <v>8.530613536630398</v>
+        <v>9.376631732755522</v>
       </c>
     </row>
     <row r="7">
@@ -734,10 +734,10 @@
         <v>45505</v>
       </c>
       <c r="B7" t="n">
-        <v>299548.8</v>
+        <v>312917.665625</v>
       </c>
       <c r="C7" t="n">
-        <v>2478.907983398437</v>
+        <v>2082.378930664062</v>
       </c>
       <c r="D7" t="n">
         <v>21</v>
@@ -756,22 +756,22 @@
         <v>34658.327</v>
       </c>
       <c r="H7" t="n">
-        <v>8.642909970813076</v>
+        <v>9.028643120165611</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07152416743596532</v>
+        <v>0.06008307702400242</v>
       </c>
       <c r="J7" t="n">
-        <v>30.57014357309551</v>
+        <v>25.68010725299987</v>
       </c>
       <c r="K7" t="n">
-        <v>124911.8496</v>
+        <v>130486.666565625</v>
       </c>
       <c r="L7" t="n">
-        <v>3222.580378417969</v>
+        <v>2707.092609863281</v>
       </c>
       <c r="M7" t="n">
-        <v>9.574467146531148</v>
+        <v>9.952510590350224</v>
       </c>
     </row>
     <row r="8">
@@ -779,10 +779,10 @@
         <v>45536</v>
       </c>
       <c r="B8" t="n">
-        <v>270303.925</v>
+        <v>323362.078125</v>
       </c>
       <c r="C8" t="n">
-        <v>2421.923095703125</v>
+        <v>2163.10966796875</v>
       </c>
       <c r="D8" t="n">
         <v>21</v>
@@ -801,22 +801,22 @@
         <v>34658.327</v>
       </c>
       <c r="H8" t="n">
-        <v>7.799104815417086</v>
+        <v>9.329996745803687</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06987997706014849</v>
+        <v>0.06241240865344568</v>
       </c>
       <c r="J8" t="n">
-        <v>29.86740018366393</v>
+        <v>26.67568685768642</v>
       </c>
       <c r="K8" t="n">
-        <v>112716.736725</v>
+        <v>134841.986578125</v>
       </c>
       <c r="L8" t="n">
-        <v>3148.500024414062</v>
+        <v>2812.042568359375</v>
       </c>
       <c r="M8" t="n">
-        <v>8.657687889735561</v>
+        <v>10.28579110136631</v>
       </c>
     </row>
     <row r="9">
@@ -824,10 +824,10 @@
         <v>45566</v>
       </c>
       <c r="B9" t="n">
-        <v>278241.8359375</v>
+        <v>321690.96875</v>
       </c>
       <c r="C9" t="n">
-        <v>2253.33740234375</v>
+        <v>2144.113513183594</v>
       </c>
       <c r="D9" t="n">
         <v>22</v>
@@ -846,22 +846,22 @@
         <v>34658.327</v>
       </c>
       <c r="H9" t="n">
-        <v>8.028138113461161</v>
+        <v>9.281780068322398</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06501575804117002</v>
+        <v>0.06186431079560169</v>
       </c>
       <c r="J9" t="n">
-        <v>26.52527600792746</v>
+        <v>25.23954143323883</v>
       </c>
       <c r="K9" t="n">
-        <v>116026.8455859375</v>
+        <v>134145.13396875</v>
       </c>
       <c r="L9" t="n">
-        <v>2929.338623046875</v>
+        <v>2787.347567138672</v>
       </c>
       <c r="M9" t="n">
-        <v>8.888649817051228</v>
+        <v>10.23187558550168</v>
       </c>
     </row>
     <row r="10">
@@ -869,10 +869,10 @@
         <v>45597</v>
       </c>
       <c r="B10" t="n">
-        <v>271974.9375</v>
+        <v>311246.653125</v>
       </c>
       <c r="C10" t="n">
-        <v>2376.8078125</v>
+        <v>1994.525512695312</v>
       </c>
       <c r="D10" t="n">
         <v>21</v>
@@ -891,22 +891,22 @@
         <v>34658.327</v>
       </c>
       <c r="H10" t="n">
-        <v>7.8473186977548</v>
+        <v>8.980429237827897</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06857826150985304</v>
+        <v>0.05754823401300682</v>
       </c>
       <c r="J10" t="n">
-        <v>29.31103395543079</v>
+        <v>24.59669003111093</v>
       </c>
       <c r="K10" t="n">
-        <v>113413.5489375</v>
+        <v>129789.854353125</v>
       </c>
       <c r="L10" t="n">
-        <v>3089.850156250001</v>
+        <v>2592.883166503907</v>
       </c>
       <c r="M10" t="n">
-        <v>8.705372687654641</v>
+        <v>9.891909390497394</v>
       </c>
     </row>
     <row r="11">
@@ -914,10 +914,10 @@
         <v>45627</v>
       </c>
       <c r="B11" t="n">
-        <v>259023.671875</v>
+        <v>312082.115625</v>
       </c>
       <c r="C11" t="n">
-        <v>2201.099853515625</v>
+        <v>2322.195532226563</v>
       </c>
       <c r="D11" t="n">
         <v>21</v>
@@ -936,22 +936,22 @@
         <v>34658.327</v>
       </c>
       <c r="H11" t="n">
-        <v>7.473634600856528</v>
+        <v>9.004534916673849</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06350854308448371</v>
+        <v>0.0670025282012765</v>
       </c>
       <c r="J11" t="n">
-        <v>27.14418566212544</v>
+        <v>28.6375498003133</v>
       </c>
       <c r="K11" t="n">
-        <v>108012.871171875</v>
+        <v>130138.242215625</v>
       </c>
       <c r="L11" t="n">
-        <v>2861.429809570312</v>
+        <v>3018.854191894532</v>
       </c>
       <c r="M11" t="n">
-        <v>8.284754943072336</v>
+        <v>9.949771073208135</v>
       </c>
     </row>
     <row r="12">
@@ -962,7 +962,7 @@
         <v>405077.896875</v>
       </c>
       <c r="C12" t="n">
-        <v>2566.635693359375</v>
+        <v>2588.953759765625</v>
       </c>
       <c r="D12" t="n">
         <v>20</v>
@@ -984,19 +984,19 @@
         <v>11.0107359820124</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06976571222376556</v>
+        <v>0.07037235686847217</v>
       </c>
       <c r="J12" t="n">
-        <v>31.30949036383624</v>
+        <v>31.5817406434119</v>
       </c>
       <c r="K12" t="n">
         <v>168917.482996875</v>
       </c>
       <c r="L12" t="n">
-        <v>3336.626401367188</v>
+        <v>3365.639887695313</v>
       </c>
       <c r="M12" t="n">
-        <v>11.42323624965208</v>
+        <v>11.4251603135244</v>
       </c>
     </row>
     <row r="13">
@@ -1004,10 +1004,10 @@
         <v>45383</v>
       </c>
       <c r="B13" t="n">
-        <v>413570.9375</v>
+        <v>417263.28125</v>
       </c>
       <c r="C13" t="n">
-        <v>2410.405395507812</v>
+        <v>2373.208911132812</v>
       </c>
       <c r="D13" t="n">
         <v>21</v>
@@ -1026,22 +1026,22 @@
         <v>36789.357</v>
       </c>
       <c r="H13" t="n">
-        <v>11.24159189572136</v>
+        <v>11.34195635031077</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06551909552286582</v>
+        <v>0.06450802907843189</v>
       </c>
       <c r="J13" t="n">
-        <v>28.00351585646298</v>
+        <v>27.57137595919041</v>
       </c>
       <c r="K13" t="n">
-        <v>172459.0809375</v>
+        <v>173998.78828125</v>
       </c>
       <c r="L13" t="n">
-        <v>3133.527014160156</v>
+        <v>3085.171584472656</v>
       </c>
       <c r="M13" t="n">
-        <v>11.64463275408406</v>
+        <v>11.74353353099569</v>
       </c>
     </row>
     <row r="14">
@@ -1049,10 +1049,10 @@
         <v>45413</v>
       </c>
       <c r="B14" t="n">
-        <v>408770.390625</v>
+        <v>413570.9375</v>
       </c>
       <c r="C14" t="n">
-        <v>2415.3666015625</v>
+        <v>2479.842529296875</v>
       </c>
       <c r="D14" t="n">
         <v>21</v>
@@ -1071,22 +1071,22 @@
         <v>36789.357</v>
       </c>
       <c r="H14" t="n">
-        <v>11.11110451386796</v>
+        <v>11.24159189572136</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06565394990628674</v>
+        <v>0.06740652002417098</v>
       </c>
       <c r="J14" t="n">
-        <v>28.06115396691466</v>
+        <v>28.8102199406445</v>
       </c>
       <c r="K14" t="n">
-        <v>170457.252890625</v>
+        <v>172459.0809375</v>
       </c>
       <c r="L14" t="n">
-        <v>3139.97658203125</v>
+        <v>3223.795288085938</v>
       </c>
       <c r="M14" t="n">
-        <v>11.51230685571936</v>
+        <v>11.65061900209002</v>
       </c>
     </row>
     <row r="15">
@@ -1094,10 +1094,10 @@
         <v>45444</v>
       </c>
       <c r="B15" t="n">
-        <v>406185.75</v>
+        <v>417263.28125</v>
       </c>
       <c r="C15" t="n">
-        <v>2092.985913085938</v>
+        <v>2316.172998046875</v>
       </c>
       <c r="D15" t="n">
         <v>19</v>
@@ -1116,22 +1116,22 @@
         <v>36789.357</v>
       </c>
       <c r="H15" t="n">
-        <v>11.04084939565538</v>
+        <v>11.34195635031077</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0568910707813115</v>
+        <v>0.06295769175979006</v>
       </c>
       <c r="J15" t="n">
-        <v>26.87537104945138</v>
+        <v>29.74124591476603</v>
       </c>
       <c r="K15" t="n">
-        <v>169379.45775</v>
+        <v>173998.78828125</v>
       </c>
       <c r="L15" t="n">
-        <v>2720.881687011719</v>
+        <v>3011.024897460938</v>
       </c>
       <c r="M15" t="n">
-        <v>11.41303881168458</v>
+        <v>11.73861640521087</v>
       </c>
     </row>
     <row r="16">
@@ -1139,10 +1139,10 @@
         <v>45474</v>
       </c>
       <c r="B16" t="n">
-        <v>409878.09375</v>
+        <v>405077.896875</v>
       </c>
       <c r="C16" t="n">
-        <v>1986.3533203125</v>
+        <v>2202.100390625</v>
       </c>
       <c r="D16" t="n">
         <v>23</v>
@@ -1161,22 +1161,22 @@
         <v>36789.357</v>
       </c>
       <c r="H16" t="n">
-        <v>11.14121385024479</v>
+        <v>11.0107359820124</v>
       </c>
       <c r="I16" t="n">
-        <v>0.05399260770750899</v>
+        <v>0.05985699588674517</v>
       </c>
       <c r="J16" t="n">
-        <v>21.07028593463765</v>
+        <v>23.35882766312006</v>
       </c>
       <c r="K16" t="n">
-        <v>170919.16509375</v>
+        <v>168917.482996875</v>
       </c>
       <c r="L16" t="n">
-        <v>2582.25931640625</v>
+        <v>2862.7305078125</v>
       </c>
       <c r="M16" t="n">
-        <v>11.50595342899025</v>
+        <v>11.39180927952796</v>
       </c>
     </row>
     <row r="17">
@@ -1184,10 +1184,10 @@
         <v>45505</v>
       </c>
       <c r="B17" t="n">
-        <v>428341.3125</v>
+        <v>408770.390625</v>
       </c>
       <c r="C17" t="n">
-        <v>2132.6650390625</v>
+        <v>2182.26171875</v>
       </c>
       <c r="D17" t="n">
         <v>21</v>
@@ -1206,22 +1206,22 @@
         <v>36789.357</v>
       </c>
       <c r="H17" t="n">
-        <v>11.64307689585333</v>
+        <v>11.11110451386796</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05796961982952026</v>
+        <v>0.05931774558468091</v>
       </c>
       <c r="J17" t="n">
-        <v>24.77679453805279</v>
+        <v>25.35299695140833</v>
       </c>
       <c r="K17" t="n">
-        <v>178618.3273125</v>
+        <v>170457.252890625</v>
       </c>
       <c r="L17" t="n">
-        <v>2772.46455078125</v>
+        <v>2836.940234375</v>
       </c>
       <c r="M17" t="n">
-        <v>12.02914622010681</v>
+        <v>11.49221063970686</v>
       </c>
     </row>
     <row r="18">
@@ -1229,10 +1229,10 @@
         <v>45536</v>
       </c>
       <c r="B18" t="n">
-        <v>428341.3125</v>
+        <v>403970.19375</v>
       </c>
       <c r="C18" t="n">
-        <v>2199.61953125</v>
+        <v>2043.3890625</v>
       </c>
       <c r="D18" t="n">
         <v>21</v>
@@ -1251,22 +1251,22 @@
         <v>36789.357</v>
       </c>
       <c r="H18" t="n">
-        <v>11.64307689585333</v>
+        <v>10.98062664563558</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05978956172705056</v>
+        <v>0.05554294038082807</v>
       </c>
       <c r="J18" t="n">
-        <v>25.55465588333868</v>
+        <v>23.73960750307169</v>
       </c>
       <c r="K18" t="n">
-        <v>178618.3273125</v>
+        <v>168455.57079375</v>
       </c>
       <c r="L18" t="n">
-        <v>2859.505390625</v>
+        <v>2656.40578125</v>
       </c>
       <c r="M18" t="n">
-        <v>12.03491843698092</v>
+        <v>11.34749435232402</v>
       </c>
     </row>
     <row r="19">
@@ -1274,10 +1274,10 @@
         <v>45566</v>
       </c>
       <c r="B19" t="n">
-        <v>417263.28125</v>
+        <v>397692.709375</v>
       </c>
       <c r="C19" t="n">
-        <v>2038.431030273438</v>
+        <v>2043.3890625</v>
       </c>
       <c r="D19" t="n">
         <v>22</v>
@@ -1296,22 +1296,22 @@
         <v>36789.357</v>
       </c>
       <c r="H19" t="n">
-        <v>11.34195635031077</v>
+        <v>10.80999348194642</v>
       </c>
       <c r="I19" t="n">
-        <v>0.05540817226768702</v>
+        <v>0.05554294038082807</v>
       </c>
       <c r="J19" t="n">
-        <v>22.6055514351539</v>
+        <v>22.66053443475025</v>
       </c>
       <c r="K19" t="n">
-        <v>173998.78828125</v>
+        <v>165837.859809375</v>
       </c>
       <c r="L19" t="n">
-        <v>2649.960339355469</v>
+        <v>2656.40578125</v>
       </c>
       <c r="M19" t="n">
-        <v>11.714671979368</v>
+        <v>11.17389773328087</v>
       </c>
     </row>
     <row r="20">
@@ -1319,10 +1319,10 @@
         <v>45597</v>
       </c>
       <c r="B20" t="n">
-        <v>405077.896875</v>
+        <v>398800.5625</v>
       </c>
       <c r="C20" t="n">
-        <v>2018.592395019531</v>
+        <v>1902.038757324219</v>
       </c>
       <c r="D20" t="n">
         <v>21</v>
@@ -1341,22 +1341,22 @@
         <v>36789.357</v>
       </c>
       <c r="H20" t="n">
-        <v>11.0107359820124</v>
+        <v>10.8401068955894</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05486892296104906</v>
+        <v>0.05170078828298681</v>
       </c>
       <c r="J20" t="n">
-        <v>23.45152572551225</v>
+        <v>22.09743331955766</v>
       </c>
       <c r="K20" t="n">
-        <v>168917.482996875</v>
+        <v>166299.8345625</v>
       </c>
       <c r="L20" t="n">
-        <v>2624.170113525391</v>
+        <v>2472.650384521484</v>
       </c>
       <c r="M20" t="n">
-        <v>11.37598886309045</v>
+        <v>11.19234818098539</v>
       </c>
     </row>
     <row r="21">
@@ -1364,10 +1364,10 @@
         <v>45627</v>
       </c>
       <c r="B21" t="n">
-        <v>423540.765625</v>
+        <v>406185.75</v>
       </c>
       <c r="C21" t="n">
-        <v>2038.431030273438</v>
+        <v>1909.479431152344</v>
       </c>
       <c r="D21" t="n">
         <v>21</v>
@@ -1386,22 +1386,22 @@
         <v>36789.357</v>
       </c>
       <c r="H21" t="n">
-        <v>11.51258951399993</v>
+        <v>11.04084939565538</v>
       </c>
       <c r="I21" t="n">
-        <v>0.05540817226768702</v>
+        <v>0.05190303899990271</v>
       </c>
       <c r="J21" t="n">
-        <v>23.68200626539933</v>
+        <v>22.18387729612566</v>
       </c>
       <c r="K21" t="n">
-        <v>176616.499265625</v>
+        <v>169379.45775</v>
       </c>
       <c r="L21" t="n">
-        <v>2649.960339355469</v>
+        <v>2482.323260498047</v>
       </c>
       <c r="M21" t="n">
-        <v>11.88826859841116</v>
+        <v>11.39721852574231</v>
       </c>
     </row>
     <row r="22">
@@ -1409,10 +1409,10 @@
         <v>45352</v>
       </c>
       <c r="B22" t="n">
-        <v>116072.0390625</v>
+        <v>118790.19453125</v>
       </c>
       <c r="C22" t="n">
-        <v>848.8428344726562</v>
+        <v>851.426416015625</v>
       </c>
       <c r="D22" t="n">
         <v>20</v>
@@ -1431,22 +1431,22 @@
         <v>10970</v>
       </c>
       <c r="H22" t="n">
-        <v>10.58086044325433</v>
+        <v>10.82864125170921</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0773785628507435</v>
+        <v>0.0776140762092639</v>
       </c>
       <c r="J22" t="n">
-        <v>34.72598918179708</v>
+        <v>34.83168298171843</v>
       </c>
       <c r="K22" t="n">
-        <v>48402.0402890625</v>
+        <v>49535.51111953125</v>
       </c>
       <c r="L22" t="n">
-        <v>1103.495684814453</v>
+        <v>1106.854340820312</v>
       </c>
       <c r="M22" t="n">
-        <v>36.92363707334486</v>
+        <v>37.77153980880894</v>
       </c>
     </row>
     <row r="23">
@@ -1454,10 +1454,10 @@
         <v>45383</v>
       </c>
       <c r="B23" t="n">
-        <v>111737.73828125</v>
+        <v>120332.95625</v>
       </c>
       <c r="C23" t="n">
-        <v>894.7088317871094</v>
+        <v>813.9589233398438</v>
       </c>
       <c r="D23" t="n">
         <v>21</v>
@@ -1476,22 +1476,22 @@
         <v>10970</v>
       </c>
       <c r="H23" t="n">
-        <v>10.18575554067912</v>
+        <v>10.96927586599818</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08155960180374744</v>
+        <v>0.07419862564629387</v>
       </c>
       <c r="J23" t="n">
-        <v>34.8593884596737</v>
+        <v>31.7132337257098</v>
       </c>
       <c r="K23" t="n">
-        <v>46594.63686328124</v>
+        <v>50178.84275625</v>
       </c>
       <c r="L23" t="n">
-        <v>1163.121481323242</v>
+        <v>1058.146600341797</v>
       </c>
       <c r="M23" t="n">
-        <v>35.62005949159277</v>
+        <v>38.21503923787275</v>
       </c>
     </row>
     <row r="24">
@@ -1499,10 +1499,10 @@
         <v>45413</v>
       </c>
       <c r="B24" t="n">
-        <v>117541.3046875</v>
+        <v>114602.7734375</v>
       </c>
       <c r="C24" t="n">
-        <v>826.87890625</v>
+        <v>806.20693359375</v>
       </c>
       <c r="D24" t="n">
         <v>21</v>
@@ -1521,22 +1521,22 @@
         <v>10970</v>
       </c>
       <c r="H24" t="n">
-        <v>10.71479532247037</v>
+        <v>10.44692556403829</v>
       </c>
       <c r="I24" t="n">
-        <v>0.07537638160893345</v>
+        <v>0.07349197206871012</v>
       </c>
       <c r="J24" t="n">
-        <v>32.21661838802265</v>
+        <v>31.41120292832209</v>
       </c>
       <c r="K24" t="n">
-        <v>49014.7240546875</v>
+        <v>47789.3565234375</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.942578125</v>
+        <v>1048.069013671875</v>
       </c>
       <c r="M24" t="n">
-        <v>37.35931013555211</v>
+        <v>36.42532780738443</v>
       </c>
     </row>
     <row r="25">
@@ -1544,10 +1544,10 @@
         <v>45444</v>
       </c>
       <c r="B25" t="n">
-        <v>109974.603125</v>
+        <v>116586.31484375</v>
       </c>
       <c r="C25" t="n">
-        <v>807.49853515625</v>
+        <v>833.3384399414062</v>
       </c>
       <c r="D25" t="n">
         <v>19</v>
@@ -1566,22 +1566,22 @@
         <v>10970</v>
       </c>
       <c r="H25" t="n">
-        <v>10.02503219006381</v>
+        <v>10.62774064209207</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07360971150011394</v>
+        <v>0.07596521786156848</v>
       </c>
       <c r="J25" t="n">
-        <v>34.77326550968155</v>
+        <v>35.8860079243353</v>
       </c>
       <c r="K25" t="n">
-        <v>45859.409503125</v>
+        <v>48616.49328984375</v>
       </c>
       <c r="L25" t="n">
-        <v>1049.748095703125</v>
+        <v>1083.339971923828</v>
       </c>
       <c r="M25" t="n">
-        <v>34.98713177268573</v>
+        <v>37.0685534428231</v>
       </c>
     </row>
     <row r="26">
@@ -1589,10 +1589,10 @@
         <v>45474</v>
       </c>
       <c r="B26" t="n">
-        <v>112178.51796875</v>
+        <v>114235.48984375</v>
       </c>
       <c r="C26" t="n">
-        <v>839.7988891601562</v>
+        <v>771.9687194824219</v>
       </c>
       <c r="D26" t="n">
         <v>23</v>
@@ -1611,22 +1611,22 @@
         <v>10970</v>
       </c>
       <c r="H26" t="n">
-        <v>10.22593600444394</v>
+        <v>10.4134448353464</v>
       </c>
       <c r="I26" t="n">
-        <v>0.07655413757157303</v>
+        <v>0.07037089512146051</v>
       </c>
       <c r="J26" t="n">
-        <v>29.8747853937846</v>
+        <v>27.46181273032605</v>
       </c>
       <c r="K26" t="n">
-        <v>46778.44199296875</v>
+        <v>47636.19926484374</v>
       </c>
       <c r="L26" t="n">
-        <v>1091.738555908203</v>
+        <v>1003.559335327148</v>
       </c>
       <c r="M26" t="n">
-        <v>35.70390944065165</v>
+        <v>36.2778981897197</v>
       </c>
     </row>
     <row r="27">
@@ -1634,10 +1634,10 @@
         <v>45505</v>
       </c>
       <c r="B27" t="n">
-        <v>113207.00390625</v>
+        <v>112766.22421875</v>
       </c>
       <c r="C27" t="n">
-        <v>801.6846618652344</v>
+        <v>779.7207092285156</v>
       </c>
       <c r="D27" t="n">
         <v>21</v>
@@ -1656,22 +1656,22 @@
         <v>10970</v>
       </c>
       <c r="H27" t="n">
-        <v>10.31969041989517</v>
+        <v>10.27950995613035</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07307973216638418</v>
+        <v>0.07107754869904427</v>
       </c>
       <c r="J27" t="n">
-        <v>31.23500747645688</v>
+        <v>30.37925426393529</v>
       </c>
       <c r="K27" t="n">
-        <v>47207.32062890625</v>
+        <v>47023.51549921875</v>
       </c>
       <c r="L27" t="n">
-        <v>1042.190060424805</v>
+        <v>1013.63692199707</v>
       </c>
       <c r="M27" t="n">
-        <v>35.98683231304514</v>
+        <v>35.82844518588528</v>
       </c>
     </row>
     <row r="28">
@@ -1679,10 +1679,10 @@
         <v>45536</v>
       </c>
       <c r="B28" t="n">
-        <v>116586.31484375</v>
+        <v>111664.2421875</v>
       </c>
       <c r="C28" t="n">
-        <v>819.1269165039063</v>
+        <v>801.0389404296875</v>
       </c>
       <c r="D28" t="n">
         <v>21</v>
@@ -1701,22 +1701,22 @@
         <v>10970</v>
       </c>
       <c r="H28" t="n">
-        <v>10.62774064209207</v>
+        <v>10.1790558056062</v>
       </c>
       <c r="I28" t="n">
-        <v>0.07466972803134971</v>
+        <v>0.07302086968365429</v>
       </c>
       <c r="J28" t="n">
-        <v>31.91458759063494</v>
+        <v>31.20984906339694</v>
       </c>
       <c r="K28" t="n">
-        <v>48616.49328984375</v>
+        <v>46563.9889921875</v>
       </c>
       <c r="L28" t="n">
-        <v>1064.864991455078</v>
+        <v>1041.350622558594</v>
       </c>
       <c r="M28" t="n">
-        <v>37.05477390361914</v>
+        <v>35.50637818800197</v>
       </c>
     </row>
     <row r="29">
@@ -1724,10 +1724,10 @@
         <v>45566</v>
       </c>
       <c r="B29" t="n">
-        <v>112398.921875</v>
+        <v>110268.47265625</v>
       </c>
       <c r="C29" t="n">
-        <v>824.940771484375</v>
+        <v>729.9786987304688</v>
       </c>
       <c r="D29" t="n">
         <v>22</v>
@@ -1746,22 +1746,22 @@
         <v>10970</v>
       </c>
       <c r="H29" t="n">
-        <v>10.24602751823154</v>
+        <v>10.05182066146308</v>
       </c>
       <c r="I29" t="n">
-        <v>0.07519970569593208</v>
+        <v>0.06654318128810108</v>
       </c>
       <c r="J29" t="n">
-        <v>30.68014600454879</v>
+        <v>27.14843759869311</v>
       </c>
       <c r="K29" t="n">
-        <v>46870.35042187499</v>
+        <v>45981.95309765625</v>
       </c>
       <c r="L29" t="n">
-        <v>1072.423002929688</v>
+        <v>948.9723083496094</v>
       </c>
       <c r="M29" t="n">
-        <v>35.75805273901489</v>
+        <v>35.0033672622386</v>
       </c>
     </row>
     <row r="30">
@@ -1769,10 +1769,10 @@
         <v>45597</v>
       </c>
       <c r="B30" t="n">
-        <v>111811.16875</v>
+        <v>106815.66796875</v>
       </c>
       <c r="C30" t="n">
-        <v>749.3590698242188</v>
+        <v>762.279052734375</v>
       </c>
       <c r="D30" t="n">
         <v>21</v>
@@ -1791,22 +1791,22 @@
         <v>10970</v>
       </c>
       <c r="H30" t="n">
-        <v>10.1924492935278</v>
+        <v>9.73707091784412</v>
       </c>
       <c r="I30" t="n">
-        <v>0.06830985139692058</v>
+        <v>0.06948760735956017</v>
       </c>
       <c r="J30" t="n">
-        <v>29.19631279217976</v>
+        <v>29.69969745449261</v>
       </c>
       <c r="K30" t="n">
-        <v>46625.25736875</v>
+        <v>44542.13354296875</v>
       </c>
       <c r="L30" t="n">
-        <v>974.1667907714844</v>
+        <v>990.9627685546875</v>
       </c>
       <c r="M30" t="n">
-        <v>35.50196615372055</v>
+        <v>33.96079832202015</v>
       </c>
     </row>
     <row r="31">
@@ -1814,10 +1814,10 @@
         <v>45627</v>
       </c>
       <c r="B31" t="n">
-        <v>106301.46328125</v>
+        <v>107550.353125</v>
       </c>
       <c r="C31" t="n">
-        <v>786.1808410644531</v>
+        <v>708.6610473632812</v>
       </c>
       <c r="D31" t="n">
         <v>21</v>
@@ -1836,22 +1836,22 @@
         <v>10970</v>
       </c>
       <c r="H31" t="n">
-        <v>9.690197199749317</v>
+        <v>9.804043128988148</v>
       </c>
       <c r="I31" t="n">
-        <v>0.07166643947716073</v>
+        <v>0.06459991315982509</v>
       </c>
       <c r="J31" t="n">
-        <v>30.63095206457043</v>
+        <v>27.61064813335149</v>
       </c>
       <c r="K31" t="n">
-        <v>44327.71018828125</v>
+        <v>44848.497253125</v>
       </c>
       <c r="L31" t="n">
-        <v>1022.035093383789</v>
+        <v>921.2593615722657</v>
       </c>
       <c r="M31" t="n">
-        <v>33.82404620429563</v>
+        <v>34.13731108917147</v>
       </c>
     </row>
     <row r="32">
@@ -1859,10 +1859,10 @@
         <v>45352</v>
       </c>
       <c r="B32" t="n">
-        <v>106837.94609375</v>
+        <v>109541.7</v>
       </c>
       <c r="C32" t="n">
-        <v>772.7584594726562</v>
+        <v>815.2833984375</v>
       </c>
       <c r="D32" t="n">
         <v>20</v>
@@ -1881,22 +1881,22 @@
         <v>10965</v>
       </c>
       <c r="H32" t="n">
-        <v>9.743542735408116</v>
+        <v>9.990123119015047</v>
       </c>
       <c r="I32" t="n">
-        <v>0.07047500770384461</v>
+        <v>0.0743532511114911</v>
       </c>
       <c r="J32" t="n">
-        <v>31.62780833538392</v>
+        <v>33.36828830369357</v>
       </c>
       <c r="K32" t="n">
-        <v>44551.42352109375</v>
+        <v>45678.8889</v>
       </c>
       <c r="L32" t="n">
-        <v>1004.585997314453</v>
+        <v>1059.86841796875</v>
       </c>
       <c r="M32" t="n">
-        <v>34.00888275756135</v>
+        <v>34.89183830332233</v>
       </c>
     </row>
     <row r="33">
@@ -1904,10 +1904,10 @@
         <v>45383</v>
       </c>
       <c r="B33" t="n">
-        <v>106837.94609375</v>
+        <v>107329.53125</v>
       </c>
       <c r="C33" t="n">
-        <v>773.4227844238281</v>
+        <v>833.2239135742187</v>
       </c>
       <c r="D33" t="n">
         <v>21</v>
@@ -1926,22 +1926,22 @@
         <v>10965</v>
       </c>
       <c r="H33" t="n">
-        <v>9.743542735408116</v>
+        <v>9.788374943000456</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0705355936547039</v>
+        <v>0.07598941300266472</v>
       </c>
       <c r="J33" t="n">
-        <v>30.14761726472826</v>
+        <v>32.47863412889735</v>
       </c>
       <c r="K33" t="n">
-        <v>44551.42352109375</v>
+        <v>44756.41453125</v>
       </c>
       <c r="L33" t="n">
-        <v>1005.449619750977</v>
+        <v>1083.191087646484</v>
       </c>
       <c r="M33" t="n">
-        <v>34.00952747676528</v>
+        <v>34.2205954741484</v>
       </c>
     </row>
     <row r="34">
@@ -1949,10 +1949,10 @@
         <v>45413</v>
       </c>
       <c r="B34" t="n">
-        <v>105772.88046875</v>
+        <v>103069.12421875</v>
       </c>
       <c r="C34" t="n">
-        <v>730.8982543945312</v>
+        <v>724.91806640625</v>
       </c>
       <c r="D34" t="n">
         <v>21</v>
@@ -1971,22 +1971,22 @@
         <v>10965</v>
       </c>
       <c r="H34" t="n">
-        <v>9.64640952747378</v>
+        <v>9.399828930118559</v>
       </c>
       <c r="I34" t="n">
-        <v>0.06665738754168092</v>
+        <v>0.06611199876025992</v>
       </c>
       <c r="J34" t="n">
-        <v>28.49003323500416</v>
+        <v>28.25692862227137</v>
       </c>
       <c r="K34" t="n">
-        <v>44107.29115546875</v>
+        <v>42979.82479921875</v>
       </c>
       <c r="L34" t="n">
-        <v>950.1677307128906</v>
+        <v>942.3934863281251</v>
       </c>
       <c r="M34" t="n">
-        <v>33.63670024685988</v>
+        <v>32.78921020335617</v>
       </c>
     </row>
     <row r="35">
@@ -1994,10 +1994,10 @@
         <v>45444</v>
       </c>
       <c r="B35" t="n">
-        <v>108804.3375</v>
+        <v>108722.37109375</v>
       </c>
       <c r="C35" t="n">
-        <v>782.0609558105468</v>
+        <v>730.8982543945312</v>
       </c>
       <c r="D35" t="n">
         <v>19</v>
@@ -2016,22 +2016,22 @@
         <v>10965</v>
       </c>
       <c r="H35" t="n">
-        <v>9.922876196990423</v>
+        <v>9.915400920542636</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0713233885828132</v>
+        <v>0.06665738754168092</v>
       </c>
       <c r="J35" t="n">
-        <v>33.69320538957029</v>
+        <v>31.4889841018467</v>
       </c>
       <c r="K35" t="n">
-        <v>45371.40873749999</v>
+        <v>45337.22874609375</v>
       </c>
       <c r="L35" t="n">
-        <v>1016.679242553711</v>
+        <v>950.1677307128906</v>
       </c>
       <c r="M35" t="n">
-        <v>34.63005346909524</v>
+        <v>34.55488434070114</v>
       </c>
     </row>
     <row r="36">
@@ -2039,10 +2039,10 @@
         <v>45474</v>
       </c>
       <c r="B36" t="n">
-        <v>105445.13671875</v>
+        <v>102413.6796875</v>
       </c>
       <c r="C36" t="n">
-        <v>767.4428344726563</v>
+        <v>784.7186157226563</v>
       </c>
       <c r="D36" t="n">
         <v>23</v>
@@ -2061,22 +2061,22 @@
         <v>10965</v>
       </c>
       <c r="H36" t="n">
-        <v>9.616519536593707</v>
+        <v>9.340052867077063</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0699902265820936</v>
+        <v>0.07156576522778443</v>
       </c>
       <c r="J36" t="n">
-        <v>27.31325915398774</v>
+        <v>27.92810350352563</v>
       </c>
       <c r="K36" t="n">
-        <v>43970.62201171875</v>
+        <v>42706.5044296875</v>
       </c>
       <c r="L36" t="n">
-        <v>997.6756848144532</v>
+        <v>1020.134200439453</v>
       </c>
       <c r="M36" t="n">
-        <v>33.57013883207983</v>
+        <v>32.64320431650929</v>
       </c>
     </row>
     <row r="37">
@@ -2084,10 +2084,10 @@
         <v>45505</v>
       </c>
       <c r="B37" t="n">
-        <v>106264.465625</v>
+        <v>110688.73203125</v>
       </c>
       <c r="C37" t="n">
-        <v>713.6225341796875</v>
+        <v>758.8052856445313</v>
       </c>
       <c r="D37" t="n">
         <v>21</v>
@@ -2106,22 +2106,22 @@
         <v>10965</v>
       </c>
       <c r="H37" t="n">
-        <v>9.69124173506612</v>
+        <v>10.09473160339717</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0650818544623518</v>
+        <v>0.0692024884308738</v>
       </c>
       <c r="J37" t="n">
-        <v>27.81663465986697</v>
+        <v>29.57783477649426</v>
       </c>
       <c r="K37" t="n">
-        <v>44312.28216562499</v>
+        <v>46157.20125703124</v>
       </c>
       <c r="L37" t="n">
-        <v>927.7092944335938</v>
+        <v>986.4468713378907</v>
       </c>
       <c r="M37" t="n">
-        <v>33.77296610881842</v>
+        <v>35.19410103981062</v>
       </c>
     </row>
     <row r="38">
@@ -2129,10 +2129,10 @@
         <v>45536</v>
       </c>
       <c r="B38" t="n">
-        <v>108804.3375</v>
+        <v>107411.49765625</v>
       </c>
       <c r="C38" t="n">
-        <v>717.6092529296875</v>
+        <v>760.1337646484375</v>
       </c>
       <c r="D38" t="n">
         <v>21</v>
@@ -2151,22 +2151,22 @@
         <v>10965</v>
       </c>
       <c r="H38" t="n">
-        <v>9.922876196990423</v>
+        <v>9.795850219448244</v>
       </c>
       <c r="I38" t="n">
-        <v>0.06544544030366507</v>
+        <v>0.06932364474677952</v>
       </c>
       <c r="J38" t="n">
-        <v>27.97203488007984</v>
+        <v>29.62961819606837</v>
       </c>
       <c r="K38" t="n">
-        <v>45371.40873749999</v>
+        <v>44790.59452265625</v>
       </c>
       <c r="L38" t="n">
-        <v>932.8920288085938</v>
+        <v>988.1738940429688</v>
       </c>
       <c r="M38" t="n">
-        <v>34.56750388323459</v>
+        <v>34.17517873772444</v>
       </c>
     </row>
     <row r="39">
@@ -2174,10 +2174,10 @@
         <v>45566</v>
       </c>
       <c r="B39" t="n">
-        <v>107165.7203125</v>
+        <v>108804.3375</v>
       </c>
       <c r="C39" t="n">
-        <v>722.2600830078125</v>
+        <v>717.6092529296875</v>
       </c>
       <c r="D39" t="n">
         <v>22</v>
@@ -2196,22 +2196,22 @@
         <v>10965</v>
       </c>
       <c r="H39" t="n">
-        <v>9.773435505015959</v>
+        <v>9.922876196990423</v>
       </c>
       <c r="I39" t="n">
-        <v>0.06586959261357159</v>
+        <v>0.06544544030366507</v>
       </c>
       <c r="J39" t="n">
-        <v>26.87362536784295</v>
+        <v>26.70057874916712</v>
       </c>
       <c r="K39" t="n">
-        <v>44688.10537031249</v>
+        <v>45371.40873749999</v>
       </c>
       <c r="L39" t="n">
-        <v>938.9381079101562</v>
+        <v>932.8920288085938</v>
       </c>
       <c r="M39" t="n">
-        <v>34.06191166937065</v>
+        <v>34.56750388323459</v>
       </c>
     </row>
     <row r="40">
@@ -2219,10 +2219,10 @@
         <v>45597</v>
       </c>
       <c r="B40" t="n">
-        <v>104625.8484375</v>
+        <v>107493.39296875</v>
       </c>
       <c r="C40" t="n">
-        <v>715.6157653808593</v>
+        <v>708.9710632324219</v>
       </c>
       <c r="D40" t="n">
         <v>21</v>
@@ -2241,22 +2241,22 @@
         <v>10965</v>
       </c>
       <c r="H40" t="n">
-        <v>9.541801043091654</v>
+        <v>9.803319012197903</v>
       </c>
       <c r="I40" t="n">
-        <v>0.06526363569364882</v>
+        <v>0.06465764370564724</v>
       </c>
       <c r="J40" t="n">
-        <v>27.89432977382435</v>
+        <v>27.63532274527082</v>
       </c>
       <c r="K40" t="n">
-        <v>43628.9787984375</v>
+        <v>44824.74486796875</v>
       </c>
       <c r="L40" t="n">
-        <v>930.3004949951171</v>
+        <v>921.6623822021485</v>
       </c>
       <c r="M40" t="n">
-        <v>33.26479472789283</v>
+        <v>34.1510201880623</v>
       </c>
     </row>
     <row r="41">
@@ -2264,10 +2264,10 @@
         <v>45627</v>
       </c>
       <c r="B41" t="n">
-        <v>111426.125</v>
+        <v>102987.23125</v>
       </c>
       <c r="C41" t="n">
-        <v>713.6225341796875</v>
+        <v>691.0311279296875</v>
       </c>
       <c r="D41" t="n">
         <v>21</v>
@@ -2286,22 +2286,22 @@
         <v>10965</v>
       </c>
       <c r="H41" t="n">
-        <v>10.16198130414957</v>
+        <v>9.39236035111719</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0650818544623518</v>
+        <v>0.06302153469490994</v>
       </c>
       <c r="J41" t="n">
-        <v>27.81663465986697</v>
+        <v>26.93603341199402</v>
       </c>
       <c r="K41" t="n">
-        <v>46464.69412499999</v>
+        <v>42945.67543125</v>
       </c>
       <c r="L41" t="n">
-        <v>927.7092944335938</v>
+        <v>898.3404663085938</v>
       </c>
       <c r="M41" t="n">
-        <v>35.37980408137566</v>
+        <v>32.73082985194765</v>
       </c>
     </row>
     <row r="42">
@@ -2309,10 +2309,10 @@
         <v>45352</v>
       </c>
       <c r="B42" t="n">
-        <v>81720.43046875</v>
+        <v>84164.27421875</v>
       </c>
       <c r="C42" t="n">
-        <v>487.8432830810547</v>
+        <v>465.4792419433594</v>
       </c>
       <c r="D42" t="n">
         <v>20</v>
@@ -2331,22 +2331,22 @@
         <v>7264</v>
       </c>
       <c r="H42" t="n">
-        <v>11.2500592605658</v>
+        <v>11.58649149487197</v>
       </c>
       <c r="I42" t="n">
-        <v>0.06715904227437426</v>
+        <v>0.06408029211775322</v>
       </c>
       <c r="J42" t="n">
-        <v>30.13966775240211</v>
+        <v>28.75798475528437</v>
       </c>
       <c r="K42" t="n">
-        <v>34077.41950546874</v>
+        <v>35096.50234921875</v>
       </c>
       <c r="L42" t="n">
-        <v>634.1962680053711</v>
+        <v>605.1230145263672</v>
       </c>
       <c r="M42" t="n">
-        <v>59.04554299564327</v>
+        <v>60.72958024155898</v>
       </c>
     </row>
     <row r="43">
@@ -2354,10 +2354,10 @@
         <v>45383</v>
       </c>
       <c r="B43" t="n">
-        <v>81868.54921875001</v>
+        <v>81461.25</v>
       </c>
       <c r="C43" t="n">
-        <v>430.2270141601563</v>
+        <v>437.8080993652344</v>
       </c>
       <c r="D43" t="n">
         <v>21</v>
@@ -2376,22 +2376,22 @@
         <v>7264</v>
       </c>
       <c r="H43" t="n">
-        <v>11.2704500576473</v>
+        <v>11.21437912995595</v>
       </c>
       <c r="I43" t="n">
-        <v>0.05922728719165147</v>
+        <v>0.06027093878926685</v>
       </c>
       <c r="J43" t="n">
-        <v>25.31433413069423</v>
+        <v>25.76040124790964</v>
       </c>
       <c r="K43" t="n">
-        <v>34139.18502421875</v>
+        <v>33969.34125</v>
       </c>
       <c r="L43" t="n">
-        <v>559.2951184082032</v>
+        <v>569.1505291748048</v>
       </c>
       <c r="M43" t="n">
-        <v>59.02319887714927</v>
+        <v>58.75105367207831</v>
       </c>
     </row>
     <row r="44">
@@ -2399,10 +2399,10 @@
         <v>45413</v>
       </c>
       <c r="B44" t="n">
-        <v>78499.03125</v>
+        <v>81016.9171875</v>
       </c>
       <c r="C44" t="n">
-        <v>430.9852264404297</v>
+        <v>423.7830139160156</v>
       </c>
       <c r="D44" t="n">
         <v>21</v>
@@ -2421,22 +2421,22 @@
         <v>7264</v>
       </c>
       <c r="H44" t="n">
-        <v>10.80658469851322</v>
+        <v>11.15320996523954</v>
       </c>
       <c r="I44" t="n">
-        <v>0.05933166663552171</v>
+        <v>0.05834017262059687</v>
       </c>
       <c r="J44" t="n">
-        <v>25.35894694758651</v>
+        <v>24.9351725021831</v>
       </c>
       <c r="K44" t="n">
-        <v>32734.09603125</v>
+        <v>33784.0544671875</v>
       </c>
       <c r="L44" t="n">
-        <v>560.2807943725586</v>
+        <v>550.9179180908203</v>
       </c>
       <c r="M44" t="n">
-        <v>56.63477526369526</v>
+        <v>58.40486082409383</v>
       </c>
     </row>
     <row r="45">
@@ -2444,10 +2444,10 @@
         <v>45444</v>
       </c>
       <c r="B45" t="n">
-        <v>79609.8359375</v>
+        <v>82238.81875000001</v>
       </c>
       <c r="C45" t="n">
-        <v>419.9927307128906</v>
+        <v>427.194580078125</v>
       </c>
       <c r="D45" t="n">
         <v>19</v>
@@ -2466,22 +2466,22 @@
         <v>7264</v>
       </c>
       <c r="H45" t="n">
-        <v>10.95950384602148</v>
+        <v>11.32142328606828</v>
       </c>
       <c r="I45" t="n">
-        <v>0.05781838253206094</v>
+        <v>0.05880982655260531</v>
       </c>
       <c r="J45" t="n">
-        <v>27.31343359666036</v>
+        <v>27.78179226105103</v>
       </c>
       <c r="K45" t="n">
-        <v>33197.3015859375</v>
+        <v>34293.58741875</v>
       </c>
       <c r="L45" t="n">
-        <v>545.9905499267578</v>
+        <v>555.3529541015625</v>
       </c>
       <c r="M45" t="n">
-        <v>57.3983942327821</v>
+        <v>59.27913642989351</v>
       </c>
     </row>
     <row r="46">
@@ -2489,10 +2489,10 @@
         <v>45474</v>
       </c>
       <c r="B46" t="n">
-        <v>82238.81875000001</v>
+        <v>80979.87578125</v>
       </c>
       <c r="C46" t="n">
-        <v>404.4513244628906</v>
+        <v>445.0103118896484</v>
       </c>
       <c r="D46" t="n">
         <v>23</v>
@@ -2511,22 +2511,22 @@
         <v>7264</v>
       </c>
       <c r="H46" t="n">
-        <v>11.32142328606828</v>
+        <v>11.14811065270512</v>
       </c>
       <c r="I46" t="n">
-        <v>0.05567887175975917</v>
+        <v>0.06126243280419169</v>
       </c>
       <c r="J46" t="n">
-        <v>21.72834019893041</v>
+        <v>23.90729085041627</v>
       </c>
       <c r="K46" t="n">
-        <v>34293.58741875</v>
+        <v>33768.60820078124</v>
       </c>
       <c r="L46" t="n">
-        <v>525.7867218017578</v>
+        <v>578.513405456543</v>
       </c>
       <c r="M46" t="n">
-        <v>59.22884334495416</v>
+        <v>58.42552702854847</v>
       </c>
     </row>
     <row r="47">
@@ -2534,10 +2534,10 @@
         <v>45505</v>
       </c>
       <c r="B47" t="n">
-        <v>81720.43046875</v>
+        <v>82942.3671875</v>
       </c>
       <c r="C47" t="n">
-        <v>404.4513244628906</v>
+        <v>416.2019287109375</v>
       </c>
       <c r="D47" t="n">
         <v>21</v>
@@ -2556,22 +2556,22 @@
         <v>7264</v>
       </c>
       <c r="H47" t="n">
-        <v>11.2500592605658</v>
+        <v>11.41827742118667</v>
       </c>
       <c r="I47" t="n">
-        <v>0.05567887175975917</v>
+        <v>0.05729652102298149</v>
       </c>
       <c r="J47" t="n">
-        <v>23.79770593216188</v>
+        <v>24.4891053849677</v>
       </c>
       <c r="K47" t="n">
-        <v>34077.41950546874</v>
+        <v>34586.9671171875</v>
       </c>
       <c r="L47" t="n">
-        <v>525.7867218017578</v>
+        <v>541.0625073242188</v>
       </c>
       <c r="M47" t="n">
-        <v>58.86113497029301</v>
+        <v>59.75387596711536</v>
       </c>
     </row>
     <row r="48">
@@ -2579,10 +2579,10 @@
         <v>45536</v>
       </c>
       <c r="B48" t="n">
-        <v>80942.83984375</v>
+        <v>81868.54921875001</v>
       </c>
       <c r="C48" t="n">
-        <v>402.5562255859375</v>
+        <v>400.6608856201172</v>
       </c>
       <c r="D48" t="n">
         <v>21</v>
@@ -2601,22 +2601,22 @@
         <v>7264</v>
       </c>
       <c r="H48" t="n">
-        <v>11.14301209302726</v>
+        <v>11.2704500576473</v>
       </c>
       <c r="I48" t="n">
-        <v>0.05541798259718303</v>
+        <v>0.05515706024506019</v>
       </c>
       <c r="J48" t="n">
-        <v>23.68619929821527</v>
+        <v>23.57467847872491</v>
       </c>
       <c r="K48" t="n">
-        <v>33753.16421484375</v>
+        <v>34139.18502421875</v>
       </c>
       <c r="L48" t="n">
-        <v>523.3230932617188</v>
+        <v>520.8591513061524</v>
       </c>
       <c r="M48" t="n">
-        <v>58.30537588045566</v>
+        <v>58.9578180961763</v>
       </c>
     </row>
     <row r="49">
@@ -2624,10 +2624,10 @@
         <v>45566</v>
       </c>
       <c r="B49" t="n">
-        <v>81498.26406250001</v>
+        <v>81350.1609375</v>
       </c>
       <c r="C49" t="n">
-        <v>412.4116455078125</v>
+        <v>417.7181457519532</v>
       </c>
       <c r="D49" t="n">
         <v>22</v>
@@ -2646,22 +2646,22 @@
         <v>7264</v>
       </c>
       <c r="H49" t="n">
-        <v>11.2194746782076</v>
+        <v>11.19908603214482</v>
       </c>
       <c r="I49" t="n">
-        <v>0.05677473093444556</v>
+        <v>0.05750525134250457</v>
       </c>
       <c r="J49" t="n">
-        <v>23.16308313068289</v>
+        <v>23.46112249893756</v>
       </c>
       <c r="K49" t="n">
-        <v>33984.7761140625</v>
+        <v>33923.0171109375</v>
       </c>
       <c r="L49" t="n">
-        <v>536.1351391601563</v>
+        <v>543.0335894775392</v>
       </c>
       <c r="M49" t="n">
-        <v>58.7211486481299</v>
+        <v>58.62782913368534</v>
       </c>
     </row>
     <row r="50">
@@ -2669,10 +2669,10 @@
         <v>45597</v>
       </c>
       <c r="B50" t="n">
-        <v>81609.34140624999</v>
+        <v>80313.37656249999</v>
       </c>
       <c r="C50" t="n">
-        <v>380.9500427246094</v>
+        <v>398.3865600585938</v>
       </c>
       <c r="D50" t="n">
         <v>21</v>
@@ -2691,22 +2691,22 @@
         <v>7264</v>
       </c>
       <c r="H50" t="n">
-        <v>11.23476616275468</v>
+        <v>11.05635690563051</v>
       </c>
       <c r="I50" t="n">
-        <v>0.05244356315041428</v>
+        <v>0.05484396476577558</v>
       </c>
       <c r="J50" t="n">
-        <v>22.41490271701795</v>
+        <v>23.44085834356029</v>
       </c>
       <c r="K50" t="n">
-        <v>34031.09536640625</v>
+        <v>33490.6780265625</v>
       </c>
       <c r="L50" t="n">
-        <v>495.2350555419922</v>
+        <v>517.902528076172</v>
       </c>
       <c r="M50" t="n">
-        <v>58.73036682345412</v>
+        <v>57.84965812205806</v>
       </c>
     </row>
     <row r="51">
@@ -2714,10 +2714,10 @@
         <v>45627</v>
       </c>
       <c r="B51" t="n">
-        <v>81757.471875</v>
+        <v>80128.22421874999</v>
       </c>
       <c r="C51" t="n">
-        <v>378.2965026855469</v>
+        <v>402.1769989013672</v>
       </c>
       <c r="D51" t="n">
         <v>21</v>
@@ -2736,22 +2736,22 @@
         <v>7264</v>
       </c>
       <c r="H51" t="n">
-        <v>11.25515857310022</v>
+        <v>11.03086787152395</v>
       </c>
       <c r="I51" t="n">
-        <v>0.05207826303490459</v>
+        <v>0.05536577628047456</v>
       </c>
       <c r="J51" t="n">
-        <v>22.25876979889069</v>
+        <v>23.66388579699726</v>
       </c>
       <c r="K51" t="n">
-        <v>34092.865771875</v>
+        <v>33413.46949921874</v>
       </c>
       <c r="L51" t="n">
-        <v>491.785453491211</v>
+        <v>522.8300985717774</v>
       </c>
       <c r="M51" t="n">
-        <v>58.82957233230249</v>
+        <v>57.72670595603976</v>
       </c>
     </row>
     <row r="52">
@@ -2759,10 +2759,10 @@
         <v>45292</v>
       </c>
       <c r="B52" t="n">
-        <v>778807.3125</v>
+        <v>753169.3375</v>
       </c>
       <c r="C52" t="n">
-        <v>5446.513671875</v>
+        <v>5617.56416015625</v>
       </c>
       <c r="D52" t="n">
         <v>22</v>
@@ -2781,22 +2781,22 @@
         <v>74215</v>
       </c>
       <c r="H52" t="n">
-        <v>10.49393400929731</v>
+        <v>10.14847857575962</v>
       </c>
       <c r="I52" t="n">
-        <v>0.07338831330425116</v>
+        <v>0.07569311002029576</v>
       </c>
       <c r="J52" t="n">
-        <v>29.94113003987187</v>
+        <v>30.88144621670603</v>
       </c>
       <c r="K52" t="n">
-        <v>324762.6493125</v>
+        <v>314071.6137375</v>
       </c>
       <c r="L52" t="n">
-        <v>7080.4677734375</v>
+        <v>7302.833408203125</v>
       </c>
       <c r="M52" t="n">
-        <v>5.407709987020183</v>
+        <v>5.237112713574363</v>
       </c>
     </row>
     <row r="53">
@@ -2804,10 +2804,10 @@
         <v>45323</v>
       </c>
       <c r="B53" t="n">
-        <v>771067.3</v>
+        <v>734304.1</v>
       </c>
       <c r="C53" t="n">
-        <v>5018.89619140625</v>
+        <v>5122.423876953125</v>
       </c>
       <c r="D53" t="n">
         <v>20</v>
@@ -2826,22 +2826,22 @@
         <v>74215</v>
       </c>
       <c r="H53" t="n">
-        <v>10.3896422556087</v>
+        <v>9.894281479485279</v>
       </c>
       <c r="I53" t="n">
-        <v>0.067626439283248</v>
+        <v>0.06902140910803914</v>
       </c>
       <c r="J53" t="n">
-        <v>30.349426410043</v>
+        <v>30.97546164848586</v>
       </c>
       <c r="K53" t="n">
-        <v>321535.0641</v>
+        <v>306204.8097</v>
       </c>
       <c r="L53" t="n">
-        <v>6524.565048828125</v>
+        <v>6659.151040039063</v>
       </c>
       <c r="M53" t="n">
-        <v>5.346054329723612</v>
+        <v>5.098425966853651</v>
       </c>
     </row>
     <row r="54">
@@ -2849,10 +2849,10 @@
         <v>45352</v>
       </c>
       <c r="B54" t="n">
-        <v>753169.3375</v>
+        <v>733820.15</v>
       </c>
       <c r="C54" t="n">
-        <v>4915.366259765625</v>
+        <v>5491.529296875</v>
       </c>
       <c r="D54" t="n">
         <v>20</v>
@@ -2871,22 +2871,22 @@
         <v>74215</v>
       </c>
       <c r="H54" t="n">
-        <v>10.14847857575962</v>
+        <v>9.887760560533586</v>
       </c>
       <c r="I54" t="n">
-        <v>0.06623143919376979</v>
+        <v>0.07399487026712928</v>
       </c>
       <c r="J54" t="n">
-        <v>29.72337758939913</v>
+        <v>33.20745397354095</v>
       </c>
       <c r="K54" t="n">
-        <v>314071.6137375</v>
+        <v>306003.00255</v>
       </c>
       <c r="L54" t="n">
-        <v>6389.976137695313</v>
+        <v>7138.9880859375</v>
       </c>
       <c r="M54" t="n">
-        <v>5.222236806483691</v>
+        <v>5.102956737471836</v>
       </c>
     </row>
     <row r="55">
@@ -2894,10 +2894,10 @@
         <v>45383</v>
       </c>
       <c r="B55" t="n">
-        <v>743978.68125</v>
+        <v>714470.9</v>
       </c>
       <c r="C55" t="n">
-        <v>5077.4142578125</v>
+        <v>5104.421728515625</v>
       </c>
       <c r="D55" t="n">
         <v>21</v>
@@ -2916,22 +2916,22 @@
         <v>74215</v>
       </c>
       <c r="H55" t="n">
-        <v>10.02464031866873</v>
+        <v>9.627041703159739</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0684149330703025</v>
+        <v>0.06877884158883817</v>
       </c>
       <c r="J55" t="n">
-        <v>29.24122574897947</v>
+        <v>29.39676388466022</v>
       </c>
       <c r="K55" t="n">
-        <v>310239.11008125</v>
+        <v>297934.3653</v>
       </c>
       <c r="L55" t="n">
-        <v>6600.63853515625</v>
+        <v>6635.748247070313</v>
       </c>
       <c r="M55" t="n">
-        <v>5.163215340802717</v>
+        <v>4.963269569185708</v>
       </c>
     </row>
     <row r="56">
@@ -2939,10 +2939,10 @@
         <v>45413</v>
       </c>
       <c r="B56" t="n">
-        <v>719308.3375</v>
+        <v>701893.90625</v>
       </c>
       <c r="C56" t="n">
-        <v>5068.408935546875</v>
+        <v>5045.903662109375</v>
       </c>
       <c r="D56" t="n">
         <v>21</v>
@@ -2961,22 +2961,22 @@
         <v>74215</v>
       </c>
       <c r="H56" t="n">
-        <v>9.692223101798827</v>
+        <v>9.457574698511083</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0682935920709678</v>
+        <v>0.06799034780178366</v>
       </c>
       <c r="J56" t="n">
-        <v>29.18936339386313</v>
+        <v>29.05975376429314</v>
       </c>
       <c r="K56" t="n">
-        <v>299951.5767375</v>
+        <v>292689.75890625</v>
       </c>
       <c r="L56" t="n">
-        <v>6588.931616210938</v>
+        <v>6559.674760742188</v>
       </c>
       <c r="M56" t="n">
-        <v>4.995379090599961</v>
+        <v>4.876563857227896</v>
       </c>
     </row>
     <row r="57">
@@ -2984,10 +2984,10 @@
         <v>45444</v>
       </c>
       <c r="B57" t="n">
-        <v>690767.99375</v>
+        <v>701893.90625</v>
       </c>
       <c r="C57" t="n">
-        <v>4906.366796875</v>
+        <v>5176.43896484375</v>
       </c>
       <c r="D57" t="n">
         <v>19</v>
@@ -3006,22 +3006,22 @@
         <v>74215</v>
       </c>
       <c r="H57" t="n">
-        <v>9.3076600922994</v>
+        <v>9.457574698511083</v>
       </c>
       <c r="I57" t="n">
-        <v>0.06611017714579262</v>
+        <v>0.06974922811889443</v>
       </c>
       <c r="J57" t="n">
-        <v>31.23048162984812</v>
+        <v>32.949571178117</v>
       </c>
       <c r="K57" t="n">
-        <v>288050.25339375</v>
+        <v>292689.75890625</v>
       </c>
       <c r="L57" t="n">
-        <v>6378.2768359375</v>
+        <v>6729.370654296875</v>
       </c>
       <c r="M57" t="n">
-        <v>4.798002493974968</v>
+        <v>4.879329218722781</v>
       </c>
     </row>
     <row r="58">
@@ -3029,10 +3029,10 @@
         <v>45474</v>
       </c>
       <c r="B58" t="n">
-        <v>670935.275</v>
+        <v>653520.6375</v>
       </c>
       <c r="C58" t="n">
-        <v>5050.406787109375</v>
+        <v>4951.37939453125</v>
       </c>
       <c r="D58" t="n">
         <v>23</v>
@@ -3051,22 +3051,22 @@
         <v>74215</v>
       </c>
       <c r="H58" t="n">
-        <v>9.040426800512027</v>
+        <v>8.805775618136495</v>
       </c>
       <c r="I58" t="n">
-        <v>0.06805102455176683</v>
+        <v>0.06671669331713602</v>
       </c>
       <c r="J58" t="n">
-        <v>26.55649738605535</v>
+        <v>26.03578275790674</v>
       </c>
       <c r="K58" t="n">
-        <v>279780.009675</v>
+        <v>272518.1058375</v>
       </c>
       <c r="L58" t="n">
-        <v>6565.528823242187</v>
+        <v>6436.793212890625</v>
       </c>
       <c r="M58" t="n">
-        <v>4.66628219344567</v>
+        <v>4.545844454361083</v>
       </c>
     </row>
     <row r="59">
@@ -3074,10 +3074,10 @@
         <v>45505</v>
       </c>
       <c r="B59" t="n">
-        <v>680609.9</v>
+        <v>646748.4</v>
       </c>
       <c r="C59" t="n">
-        <v>4748.82099609375</v>
+        <v>5180.94208984375</v>
       </c>
       <c r="D59" t="n">
         <v>21</v>
@@ -3096,22 +3096,22 @@
         <v>74215</v>
       </c>
       <c r="H59" t="n">
-        <v>9.170786229198949</v>
+        <v>8.71452401805565</v>
       </c>
       <c r="I59" t="n">
-        <v>0.06398734751861147</v>
+        <v>0.06980990486887759</v>
       </c>
       <c r="J59" t="n">
-        <v>27.34883145975496</v>
+        <v>29.83745062920668</v>
       </c>
       <c r="K59" t="n">
-        <v>283814.3283</v>
+        <v>269694.0828</v>
       </c>
       <c r="L59" t="n">
-        <v>6173.467294921876</v>
+        <v>6735.224716796875</v>
       </c>
       <c r="M59" t="n">
-        <v>4.725636355285673</v>
+        <v>4.504687456200981</v>
       </c>
     </row>
     <row r="60">
@@ -3119,10 +3119,10 @@
         <v>45536</v>
       </c>
       <c r="B60" t="n">
-        <v>695121.66875</v>
+        <v>648199.6875</v>
       </c>
       <c r="C60" t="n">
-        <v>5027.899609375</v>
+        <v>4861.3544921875</v>
       </c>
       <c r="D60" t="n">
         <v>21</v>
@@ -3141,22 +3141,22 @@
         <v>74215</v>
       </c>
       <c r="H60" t="n">
-        <v>9.366323098430236</v>
+        <v>8.734079195580408</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0677477546233915</v>
+        <v>0.06550366492201712</v>
       </c>
       <c r="J60" t="n">
-        <v>28.95606701673411</v>
+        <v>27.99692066353345</v>
       </c>
       <c r="K60" t="n">
-        <v>289865.73586875</v>
+        <v>270299.2696875</v>
       </c>
       <c r="L60" t="n">
-        <v>6536.269492187501</v>
+        <v>6319.760839843751</v>
       </c>
       <c r="M60" t="n">
-        <v>4.830162212308473</v>
+        <v>4.507779179265516</v>
       </c>
     </row>
     <row r="61">
@@ -3164,10 +3164,10 @@
         <v>45566</v>
       </c>
       <c r="B61" t="n">
-        <v>677707.5125</v>
+        <v>639008.59375</v>
       </c>
       <c r="C61" t="n">
-        <v>4591.279296875</v>
+        <v>5149.431494140625</v>
       </c>
       <c r="D61" t="n">
         <v>22</v>
@@ -3186,22 +3186,22 @@
         <v>74215</v>
       </c>
       <c r="H61" t="n">
-        <v>9.131678400592872</v>
+        <v>8.610235043454827</v>
       </c>
       <c r="I61" t="n">
-        <v>0.06186457315738059</v>
+        <v>0.06938531960035875</v>
       </c>
       <c r="J61" t="n">
-        <v>25.23964847219075</v>
+        <v>28.30797961522397</v>
       </c>
       <c r="K61" t="n">
-        <v>282604.0327125</v>
+        <v>266466.58359375</v>
       </c>
       <c r="L61" t="n">
-        <v>5968.6630859375</v>
+        <v>6694.260942382813</v>
       </c>
       <c r="M61" t="n">
-        <v>4.702575912238735</v>
+        <v>4.451424637137701</v>
       </c>
     </row>
     <row r="62">
@@ -3209,10 +3209,10 @@
         <v>45597</v>
       </c>
       <c r="B62" t="n">
-        <v>658358.2625</v>
+        <v>667548.9375</v>
       </c>
       <c r="C62" t="n">
-        <v>4550.76728515625</v>
+        <v>4955.87841796875</v>
       </c>
       <c r="D62" t="n">
         <v>21</v>
@@ -3231,22 +3231,22 @@
         <v>74215</v>
       </c>
       <c r="H62" t="n">
-        <v>8.870959543219024</v>
+        <v>8.994798052954254</v>
       </c>
       <c r="I62" t="n">
-        <v>0.06131869952376541</v>
+        <v>0.0667773148011689</v>
       </c>
       <c r="J62" t="n">
-        <v>26.20822465127256</v>
+        <v>28.54129134358903</v>
       </c>
       <c r="K62" t="n">
-        <v>274535.3954625</v>
+        <v>278367.9069375</v>
       </c>
       <c r="L62" t="n">
-        <v>5915.997470703125</v>
+        <v>6442.641943359376</v>
       </c>
       <c r="M62" t="n">
-        <v>4.570231294102298</v>
+        <v>4.641268027846015</v>
       </c>
     </row>
     <row r="63">
@@ -3254,10 +3254,10 @@
         <v>45627</v>
       </c>
       <c r="B63" t="n">
-        <v>683995.8</v>
+        <v>638041.25625</v>
       </c>
       <c r="C63" t="n">
-        <v>4982.885888671875</v>
+        <v>4906.36376953125</v>
       </c>
       <c r="D63" t="n">
         <v>21</v>
@@ -3276,22 +3276,22 @@
         <v>74215</v>
       </c>
       <c r="H63" t="n">
-        <v>9.216409081722025</v>
+        <v>8.597200784881762</v>
       </c>
       <c r="I63" t="n">
-        <v>0.06714122331970458</v>
+        <v>0.0661101363542579</v>
       </c>
       <c r="J63" t="n">
-        <v>28.69682947926979</v>
+        <v>28.25613261134368</v>
       </c>
       <c r="K63" t="n">
-        <v>285226.2486</v>
+        <v>266063.20385625</v>
       </c>
       <c r="L63" t="n">
-        <v>6477.751655273438</v>
+        <v>6378.272900390625</v>
       </c>
       <c r="M63" t="n">
-        <v>4.753603598249915</v>
+        <v>4.439701831615437</v>
       </c>
     </row>
     <row r="64">
@@ -3299,10 +3299,10 @@
         <v>45292</v>
       </c>
       <c r="B64" t="n">
-        <v>354377.71875</v>
+        <v>366447.21875</v>
       </c>
       <c r="C64" t="n">
-        <v>1801.00009765625</v>
+        <v>1837.605810546875</v>
       </c>
       <c r="D64" t="n">
         <v>22</v>
@@ -3321,22 +3321,22 @@
         <v>67896</v>
       </c>
       <c r="H64" t="n">
-        <v>5.219419682308236</v>
+        <v>5.397184204518676</v>
       </c>
       <c r="I64" t="n">
-        <v>0.02652586452303891</v>
+        <v>0.02706500840324725</v>
       </c>
       <c r="J64" t="n">
-        <v>10.82208220008683</v>
+        <v>11.04204333968402</v>
       </c>
       <c r="K64" t="n">
-        <v>147775.50871875</v>
+        <v>152808.49021875</v>
       </c>
       <c r="L64" t="n">
-        <v>2341.300126953125</v>
+        <v>2388.887553710937</v>
       </c>
       <c r="M64" t="n">
-        <v>2.922839092342501</v>
+        <v>3.021759963260637</v>
       </c>
     </row>
     <row r="65">
@@ -3344,10 +3344,10 @@
         <v>45323</v>
       </c>
       <c r="B65" t="n">
-        <v>358743.290625</v>
+        <v>354377.71875</v>
       </c>
       <c r="C65" t="n">
-        <v>1636.275769042969</v>
+        <v>1716.807116699219</v>
       </c>
       <c r="D65" t="n">
         <v>20</v>
@@ -3366,22 +3366,22 @@
         <v>67896</v>
       </c>
       <c r="H65" t="n">
-        <v>5.283717606707317</v>
+        <v>5.219419682308236</v>
       </c>
       <c r="I65" t="n">
-        <v>0.02409973737838707</v>
+        <v>0.02528583593583155</v>
       </c>
       <c r="J65" t="n">
-        <v>10.815491896642</v>
+        <v>11.34778978583659</v>
       </c>
       <c r="K65" t="n">
-        <v>149595.952190625</v>
+        <v>147775.50871875</v>
       </c>
       <c r="L65" t="n">
-        <v>2127.158499755859</v>
+        <v>2231.849251708984</v>
       </c>
       <c r="M65" t="n">
-        <v>2.954114482898876</v>
+        <v>2.920708036537927</v>
       </c>
     </row>
     <row r="66">
@@ -3389,10 +3389,10 @@
         <v>45352</v>
       </c>
       <c r="B66" t="n">
-        <v>348471.478125</v>
+        <v>343335.46875</v>
       </c>
       <c r="C66" t="n">
-        <v>1755.243884277344</v>
+        <v>1709.487158203125</v>
       </c>
       <c r="D66" t="n">
         <v>20</v>
@@ -3411,22 +3411,22 @@
         <v>67896</v>
       </c>
       <c r="H66" t="n">
-        <v>5.132430159729587</v>
+        <v>5.05678491737363</v>
       </c>
       <c r="I66" t="n">
-        <v>0.02585194833682903</v>
+        <v>0.02517802459943333</v>
       </c>
       <c r="J66" t="n">
-        <v>11.60184998530864</v>
+        <v>11.2994061616969</v>
       </c>
       <c r="K66" t="n">
-        <v>145312.606378125</v>
+        <v>143170.89046875</v>
       </c>
       <c r="L66" t="n">
-        <v>2281.817049560547</v>
+        <v>2222.333305664063</v>
       </c>
       <c r="M66" t="n">
-        <v>2.873727159025864</v>
+        <v>2.830868851244718</v>
       </c>
     </row>
     <row r="67">
@@ -3434,10 +3434,10 @@
         <v>45383</v>
       </c>
       <c r="B67" t="n">
-        <v>341537.78125</v>
+        <v>356175.40625</v>
       </c>
       <c r="C67" t="n">
-        <v>1520.967614746094</v>
+        <v>1539.269982910156</v>
       </c>
       <c r="D67" t="n">
         <v>21</v>
@@ -3456,22 +3456,22 @@
         <v>67896</v>
       </c>
       <c r="H67" t="n">
-        <v>5.030307842140921</v>
+        <v>5.245896757540945</v>
       </c>
       <c r="I67" t="n">
-        <v>0.02240143181845902</v>
+        <v>0.02267099656695764</v>
       </c>
       <c r="J67" t="n">
-        <v>9.574595713348337</v>
+        <v>9.6898103793733</v>
       </c>
       <c r="K67" t="n">
-        <v>142421.25478125</v>
+        <v>148525.14440625</v>
       </c>
       <c r="L67" t="n">
-        <v>1977.257899169922</v>
+        <v>2001.050977783203</v>
       </c>
       <c r="M67" t="n">
-        <v>2.811501396704026</v>
+        <v>2.930810025026926</v>
       </c>
     </row>
     <row r="68">
@@ -3479,10 +3479,10 @@
         <v>45413</v>
       </c>
       <c r="B68" t="n">
-        <v>335631.5625</v>
+        <v>353607.384375</v>
       </c>
       <c r="C68" t="n">
-        <v>1462.398510742187</v>
+        <v>1636.275769042969</v>
       </c>
       <c r="D68" t="n">
         <v>21</v>
@@ -3501,22 +3501,22 @@
         <v>67896</v>
       </c>
       <c r="H68" t="n">
-        <v>4.9433186417462</v>
+        <v>5.208073883218452</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0215388021494961</v>
+        <v>0.02409973737838707</v>
       </c>
       <c r="J68" t="n">
-        <v>9.205899176555826</v>
+        <v>10.30046847299238</v>
       </c>
       <c r="K68" t="n">
-        <v>139958.3615625</v>
+        <v>147454.279284375</v>
       </c>
       <c r="L68" t="n">
-        <v>1901.118063964844</v>
+        <v>2127.158499755859</v>
       </c>
       <c r="M68" t="n">
-        <v>2.762065326726829</v>
+        <v>2.912415186587345</v>
       </c>
     </row>
     <row r="69">
@@ -3524,10 +3524,10 @@
         <v>45444</v>
       </c>
       <c r="B69" t="n">
-        <v>338199.571875</v>
+        <v>349241.8125</v>
       </c>
       <c r="C69" t="n">
-        <v>1691.183117675781</v>
+        <v>1649.086999511719</v>
       </c>
       <c r="D69" t="n">
         <v>19</v>
@@ -3546,22 +3546,22 @@
         <v>67896</v>
       </c>
       <c r="H69" t="n">
-        <v>4.981141331963592</v>
+        <v>5.143775958819371</v>
       </c>
       <c r="I69" t="n">
-        <v>0.02490843521968571</v>
+        <v>0.02428842640968126</v>
       </c>
       <c r="J69" t="n">
-        <v>11.76675758773343</v>
+        <v>11.47386510752593</v>
       </c>
       <c r="K69" t="n">
-        <v>141029.221471875</v>
+        <v>145633.8358125</v>
       </c>
       <c r="L69" t="n">
-        <v>2198.538052978516</v>
+        <v>2143.813099365234</v>
       </c>
       <c r="M69" t="n">
-        <v>2.788706327205246</v>
+        <v>2.877294638324097</v>
       </c>
     </row>
     <row r="70">
@@ -3569,10 +3569,10 @@
         <v>45474</v>
       </c>
       <c r="B70" t="n">
-        <v>344105.90625</v>
+        <v>354377.71875</v>
       </c>
       <c r="C70" t="n">
-        <v>1513.645983886719</v>
+        <v>1563.064465332031</v>
       </c>
       <c r="D70" t="n">
         <v>23</v>
@@ -3591,22 +3591,22 @@
         <v>67896</v>
       </c>
       <c r="H70" t="n">
-        <v>5.068132235330506</v>
+        <v>5.219419682308236</v>
       </c>
       <c r="I70" t="n">
-        <v>0.02229359585081181</v>
+        <v>0.02302145141587179</v>
       </c>
       <c r="J70" t="n">
-        <v>8.699939844219243</v>
+        <v>8.983981040340211</v>
       </c>
       <c r="K70" t="n">
-        <v>143492.16290625</v>
+        <v>147775.50871875</v>
       </c>
       <c r="L70" t="n">
-        <v>1967.739779052735</v>
+        <v>2031.983804931641</v>
       </c>
       <c r="M70" t="n">
-        <v>2.832167118433307</v>
+        <v>2.916816569982375</v>
       </c>
     </row>
     <row r="71">
@@ -3614,10 +3614,10 @@
         <v>45505</v>
       </c>
       <c r="B71" t="n">
-        <v>339997.01875</v>
+        <v>343592.39375</v>
       </c>
       <c r="C71" t="n">
-        <v>1471.549084472656</v>
+        <v>1422.132312011719</v>
       </c>
       <c r="D71" t="n">
         <v>21</v>
@@ -3636,22 +3636,22 @@
         <v>67896</v>
       </c>
       <c r="H71" t="n">
-        <v>5.007614863173088</v>
+        <v>5.060569013638506</v>
       </c>
       <c r="I71" t="n">
-        <v>0.02167357553423848</v>
+        <v>0.02094574513979791</v>
       </c>
       <c r="J71" t="n">
-        <v>9.263502667363255</v>
+        <v>8.952420686928722</v>
       </c>
       <c r="K71" t="n">
-        <v>141778.75681875</v>
+        <v>143278.02819375</v>
       </c>
       <c r="L71" t="n">
-        <v>1913.013809814453</v>
+        <v>1848.772005615235</v>
       </c>
       <c r="M71" t="n">
-        <v>2.797740823765864</v>
+        <v>2.825681469190288</v>
       </c>
     </row>
     <row r="72">
@@ -3659,10 +3659,10 @@
         <v>45536</v>
       </c>
       <c r="B72" t="n">
-        <v>331522.89375</v>
+        <v>334090.790625</v>
       </c>
       <c r="C72" t="n">
-        <v>1473.380224609375</v>
+        <v>1434.94345703125</v>
       </c>
       <c r="D72" t="n">
         <v>21</v>
@@ -3681,22 +3681,22 @@
         <v>67896</v>
       </c>
       <c r="H72" t="n">
-        <v>4.882804491428066</v>
+        <v>4.920625524699541</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0217005453135586</v>
+        <v>0.02113443291256113</v>
       </c>
       <c r="J72" t="n">
-        <v>9.275029820429229</v>
+        <v>9.033067725693952</v>
       </c>
       <c r="K72" t="n">
-        <v>138245.04669375</v>
+        <v>139315.859690625</v>
       </c>
       <c r="L72" t="n">
-        <v>1915.394291992188</v>
+        <v>1865.426494140625</v>
       </c>
       <c r="M72" t="n">
-        <v>2.728984310705439</v>
+        <v>2.748860607556399</v>
       </c>
     </row>
     <row r="73">
@@ -3704,10 +3704,10 @@
         <v>45566</v>
       </c>
       <c r="B73" t="n">
-        <v>343335.46875</v>
+        <v>339226.675</v>
       </c>
       <c r="C73" t="n">
-        <v>1409.319458007812</v>
+        <v>1568.554956054687</v>
       </c>
       <c r="D73" t="n">
         <v>22</v>
@@ -3726,22 +3726,22 @@
         <v>67896</v>
       </c>
       <c r="H73" t="n">
-        <v>5.05678491737363</v>
+        <v>4.996268926004477</v>
       </c>
       <c r="I73" t="n">
-        <v>0.02075703219641529</v>
+        <v>0.02310231760419888</v>
       </c>
       <c r="J73" t="n">
-        <v>8.468500940444374</v>
+        <v>9.425335785305087</v>
       </c>
       <c r="K73" t="n">
-        <v>143170.89046875</v>
+        <v>141457.523475</v>
       </c>
       <c r="L73" t="n">
-        <v>1832.115295410156</v>
+        <v>2039.121442871094</v>
       </c>
       <c r="M73" t="n">
-        <v>2.823271138079376</v>
+        <v>2.7939416419186</v>
       </c>
     </row>
     <row r="74">
@@ -3752,7 +3752,7 @@
         <v>340767.446875</v>
       </c>
       <c r="C74" t="n">
-        <v>1517.306591796875</v>
+        <v>1380.036108398438</v>
       </c>
       <c r="D74" t="n">
         <v>21</v>
@@ -3774,19 +3774,19 @@
         <v>5.018962043051137</v>
       </c>
       <c r="I74" t="n">
-        <v>0.02234751077820306</v>
+        <v>0.02032573507126248</v>
       </c>
       <c r="J74" t="n">
-        <v>9.551549322158799</v>
+        <v>8.687422190737042</v>
       </c>
       <c r="K74" t="n">
         <v>142100.025346875</v>
       </c>
       <c r="L74" t="n">
-        <v>1972.498569335937</v>
+        <v>1794.046940917969</v>
       </c>
       <c r="M74" t="n">
-        <v>2.805154254694941</v>
+        <v>2.801679724429857</v>
       </c>
     </row>
     <row r="75">
@@ -3794,10 +3794,10 @@
         <v>45627</v>
       </c>
       <c r="B75" t="n">
-        <v>336401.90625</v>
+        <v>354634.634375</v>
       </c>
       <c r="C75" t="n">
-        <v>1403.828967285156</v>
+        <v>1660.068676757812</v>
       </c>
       <c r="D75" t="n">
         <v>21</v>
@@ -3816,22 +3816,22 @@
         <v>67896</v>
       </c>
       <c r="H75" t="n">
-        <v>4.95466457891481</v>
+        <v>5.223203640494286</v>
       </c>
       <c r="I75" t="n">
-        <v>0.0206761660080882</v>
+        <v>0.02445016903437334</v>
       </c>
       <c r="J75" t="n">
-        <v>8.837199873375674</v>
+        <v>10.45024646300742</v>
       </c>
       <c r="K75" t="n">
-        <v>140279.59490625</v>
+        <v>147882.642534375</v>
       </c>
       <c r="L75" t="n">
-        <v>1824.977657470703</v>
+        <v>2158.089279785156</v>
       </c>
       <c r="M75" t="n">
-        <v>2.766837392052337</v>
+        <v>2.921357839686433</v>
       </c>
     </row>
     <row r="76">
@@ -3842,7 +3842,7 @@
         <v>693145.63125</v>
       </c>
       <c r="C76" t="n">
-        <v>7355.278857421875</v>
+        <v>7723.9640625</v>
       </c>
       <c r="D76" t="n">
         <v>20</v>
@@ -3864,19 +3864,19 @@
         <v>6.58214203471754</v>
       </c>
       <c r="I76" t="n">
-        <v>0.06984605826224159</v>
+        <v>0.07334710952263382</v>
       </c>
       <c r="J76" t="n">
-        <v>31.34554809817671</v>
+        <v>32.91675159064543</v>
       </c>
       <c r="K76" t="n">
         <v>289041.72823125</v>
       </c>
       <c r="L76" t="n">
-        <v>9561.862514648437</v>
+        <v>10041.15328125</v>
       </c>
       <c r="M76" t="n">
-        <v>2.416821114090512</v>
+        <v>2.420700371006404</v>
       </c>
     </row>
     <row r="77">
@@ -3884,10 +3884,10 @@
         <v>45383</v>
       </c>
       <c r="B77" t="n">
-        <v>760441.275</v>
+        <v>689781.375</v>
       </c>
       <c r="C77" t="n">
-        <v>6925.144140625</v>
+        <v>7601.068896484375</v>
       </c>
       <c r="D77" t="n">
         <v>21</v>
@@ -3906,22 +3906,22 @@
         <v>105307</v>
       </c>
       <c r="H77" t="n">
-        <v>7.221184489160265</v>
+        <v>6.550194906321517</v>
       </c>
       <c r="I77" t="n">
-        <v>0.06576147967965092</v>
+        <v>0.07218009150848828</v>
       </c>
       <c r="J77" t="n">
-        <v>28.10711326609935</v>
+        <v>30.85049207331438</v>
       </c>
       <c r="K77" t="n">
-        <v>317104.011675</v>
+        <v>287638.833375</v>
       </c>
       <c r="L77" t="n">
-        <v>9002.687382812499</v>
+        <v>9881.389565429688</v>
       </c>
       <c r="M77" t="n">
-        <v>2.639424240547608</v>
+        <v>2.408052612077384</v>
       </c>
     </row>
     <row r="78">
@@ -3929,10 +3929,10 @@
         <v>45413</v>
       </c>
       <c r="B78" t="n">
-        <v>723429.25</v>
+        <v>709969.525</v>
       </c>
       <c r="C78" t="n">
-        <v>7478.173876953125</v>
+        <v>7582.635888671875</v>
       </c>
       <c r="D78" t="n">
         <v>21</v>
@@ -3951,22 +3951,22 @@
         <v>105307</v>
       </c>
       <c r="H78" t="n">
-        <v>6.869716638020265</v>
+        <v>6.74190248511495</v>
       </c>
       <c r="I78" t="n">
-        <v>0.07101307488536493</v>
+        <v>0.07200505083870849</v>
       </c>
       <c r="J78" t="n">
-        <v>30.35169751197944</v>
+        <v>30.7756779426768</v>
       </c>
       <c r="K78" t="n">
-        <v>301669.99725</v>
+        <v>296057.291925</v>
       </c>
       <c r="L78" t="n">
-        <v>9721.626040039062</v>
+        <v>9857.426655273439</v>
       </c>
       <c r="M78" t="n">
-        <v>2.5203241797541</v>
+        <v>2.475995513413019</v>
       </c>
     </row>
     <row r="79">
@@ -3974,10 +3974,10 @@
         <v>45444</v>
       </c>
       <c r="B79" t="n">
-        <v>695669.38125</v>
+        <v>754553.3125</v>
       </c>
       <c r="C79" t="n">
-        <v>6986.593310546875</v>
+        <v>7705.530908203125</v>
       </c>
       <c r="D79" t="n">
         <v>19</v>
@@ -3996,22 +3996,22 @@
         <v>105307</v>
       </c>
       <c r="H79" t="n">
-        <v>6.606107678027102</v>
+        <v>7.165272132906645</v>
       </c>
       <c r="I79" t="n">
-        <v>0.06634500375613088</v>
+        <v>0.07317206746183184</v>
       </c>
       <c r="J79" t="n">
-        <v>31.34141384115041</v>
+        <v>34.56652224127614</v>
       </c>
       <c r="K79" t="n">
-        <v>290094.13198125</v>
+        <v>314648.7313125</v>
       </c>
       <c r="L79" t="n">
-        <v>9082.571303710938</v>
+        <v>10017.19018066406</v>
       </c>
       <c r="M79" t="n">
-        <v>2.421459740443585</v>
+        <v>2.627762955329128</v>
       </c>
     </row>
     <row r="80">
@@ -4019,10 +4019,10 @@
         <v>45474</v>
       </c>
       <c r="B80" t="n">
-        <v>737729.375</v>
+        <v>746141.13125</v>
       </c>
       <c r="C80" t="n">
-        <v>7256.96103515625</v>
+        <v>7539.6197265625</v>
       </c>
       <c r="D80" t="n">
         <v>23</v>
@@ -4041,22 +4041,22 @@
         <v>105307</v>
       </c>
       <c r="H80" t="n">
-        <v>7.005511267057271</v>
+        <v>7.085389682072416</v>
       </c>
       <c r="I80" t="n">
-        <v>0.06891242780780242</v>
+        <v>0.07159656743200832</v>
       </c>
       <c r="J80" t="n">
-        <v>26.89265475426436</v>
+        <v>27.94012387590568</v>
       </c>
       <c r="K80" t="n">
-        <v>307633.149375</v>
+        <v>311140.85173125</v>
       </c>
       <c r="L80" t="n">
-        <v>9434.049345703124</v>
+        <v>9801.505644531249</v>
       </c>
       <c r="M80" t="n">
-        <v>2.566260836112377</v>
+        <v>2.59762537943434</v>
       </c>
     </row>
     <row r="81">
@@ -4064,10 +4064,10 @@
         <v>45505</v>
       </c>
       <c r="B81" t="n">
-        <v>713334.8875</v>
+        <v>693145.63125</v>
       </c>
       <c r="C81" t="n">
-        <v>7459.740869140625</v>
+        <v>7127.923828125</v>
       </c>
       <c r="D81" t="n">
         <v>21</v>
@@ -4086,22 +4086,22 @@
         <v>105307</v>
       </c>
       <c r="H81" t="n">
-        <v>6.77386011851064</v>
+        <v>6.58214203471754</v>
       </c>
       <c r="I81" t="n">
-        <v>0.07083803421558516</v>
+        <v>0.06768708469641145</v>
       </c>
       <c r="J81" t="n">
-        <v>30.27688338134185</v>
+        <v>28.93013608394821</v>
       </c>
       <c r="K81" t="n">
-        <v>297460.6480875</v>
+        <v>289041.72823125</v>
       </c>
       <c r="L81" t="n">
-        <v>9697.663129882812</v>
+        <v>9266.300976562501</v>
       </c>
       <c r="M81" t="n">
-        <v>2.486060834245852</v>
+        <v>2.414428914572834</v>
       </c>
     </row>
     <row r="82">
@@ -4109,10 +4109,10 @@
         <v>45536</v>
       </c>
       <c r="B82" t="n">
-        <v>715858.31875</v>
+        <v>735205.9625</v>
       </c>
       <c r="C82" t="n">
-        <v>7293.8296875</v>
+        <v>6968.160302734375</v>
       </c>
       <c r="D82" t="n">
         <v>21</v>
@@ -4131,22 +4131,22 @@
         <v>105307</v>
       </c>
       <c r="H82" t="n">
-        <v>6.797822734955891</v>
+        <v>6.981548828662862</v>
       </c>
       <c r="I82" t="n">
-        <v>0.06926253418576163</v>
+        <v>0.06616996308635111</v>
       </c>
       <c r="J82" t="n">
-        <v>29.60349893189347</v>
+        <v>28.28170315421278</v>
       </c>
       <c r="K82" t="n">
-        <v>298512.91891875</v>
+        <v>306580.8863625</v>
       </c>
       <c r="L82" t="n">
-        <v>9481.97859375</v>
+        <v>9058.608393554689</v>
       </c>
       <c r="M82" t="n">
-        <v>2.492831949813308</v>
+        <v>2.554705365269532</v>
       </c>
     </row>
     <row r="83">
@@ -4154,10 +4154,10 @@
         <v>45566</v>
       </c>
       <c r="B83" t="n">
-        <v>712493.275</v>
+        <v>681368.875</v>
       </c>
       <c r="C83" t="n">
-        <v>7048.039501953125</v>
+        <v>7134.066015625</v>
       </c>
       <c r="D83" t="n">
         <v>22</v>
@@ -4176,22 +4176,22 @@
         <v>105307</v>
       </c>
       <c r="H83" t="n">
-        <v>6.765868128424511</v>
+        <v>6.470309428622978</v>
       </c>
       <c r="I83" t="n">
-        <v>0.06692849954849274</v>
+        <v>0.06774541118467908</v>
       </c>
       <c r="J83" t="n">
-        <v>27.30564061401921</v>
+        <v>27.6389260709112</v>
       </c>
       <c r="K83" t="n">
-        <v>297109.695675</v>
+        <v>284130.820875</v>
       </c>
       <c r="L83" t="n">
-        <v>9162.451352539063</v>
+        <v>9274.2858203125</v>
       </c>
       <c r="M83" t="n">
-        <v>2.478888447874961</v>
+        <v>2.374745913375963</v>
       </c>
     </row>
     <row r="84">
@@ -4199,10 +4199,10 @@
         <v>45597</v>
       </c>
       <c r="B84" t="n">
-        <v>765488.4375</v>
+        <v>720905.48125</v>
       </c>
       <c r="C84" t="n">
-        <v>7232.383837890625</v>
+        <v>6845.265283203125</v>
       </c>
       <c r="D84" t="n">
         <v>21</v>
@@ -4221,22 +4221,22 @@
         <v>105307</v>
       </c>
       <c r="H84" t="n">
-        <v>7.269112570864235</v>
+        <v>6.84575081665986</v>
       </c>
       <c r="I84" t="n">
-        <v>0.06867904163911824</v>
+        <v>0.06500294646322775</v>
       </c>
       <c r="J84" t="n">
-        <v>29.35410838930954</v>
+        <v>27.78290859287783</v>
       </c>
       <c r="K84" t="n">
-        <v>319208.6784375</v>
+        <v>300617.58568125</v>
       </c>
       <c r="L84" t="n">
-        <v>9402.098989257813</v>
+        <v>8898.844868164064</v>
       </c>
       <c r="M84" t="n">
-        <v>2.659691610602626</v>
+        <v>2.505146849176088</v>
       </c>
     </row>
     <row r="85">
@@ -4244,10 +4244,10 @@
         <v>45627</v>
       </c>
       <c r="B85" t="n">
-        <v>782312.375</v>
+        <v>726793.44375</v>
       </c>
       <c r="C85" t="n">
-        <v>6863.698291015625</v>
+        <v>7109.4884765625</v>
       </c>
       <c r="D85" t="n">
         <v>21</v>
@@ -4266,22 +4266,22 @@
         <v>105307</v>
       </c>
       <c r="H85" t="n">
-        <v>7.428873436713609</v>
+        <v>6.901663172913481</v>
       </c>
       <c r="I85" t="n">
-        <v>0.06517798713300754</v>
+        <v>0.06751202177027643</v>
       </c>
       <c r="J85" t="n">
-        <v>27.85772272351542</v>
+        <v>28.8553124407221</v>
       </c>
       <c r="K85" t="n">
-        <v>326224.260375</v>
+        <v>303072.86604375</v>
       </c>
       <c r="L85" t="n">
-        <v>8922.807778320313</v>
+        <v>9242.335019531251</v>
       </c>
       <c r="M85" t="n">
-        <v>2.712594676491185</v>
+        <v>2.527799382102808</v>
       </c>
     </row>
   </sheetData>
